--- a/output/fit_clients/fit_round_437.xlsx
+++ b/output/fit_clients/fit_round_437.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -490,28 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2273860149.497247</v>
+        <v>2271470192.399086</v>
       </c>
       <c r="F2" t="n">
-        <v>0.09516171205081062</v>
+        <v>0.09525160426201081</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03641037348799827</v>
+        <v>0.04444707724046824</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>1</v>
-      </c>
-      <c r="J2" t="n">
-        <v>1136930107.235172</v>
       </c>
     </row>
     <row r="3">
@@ -524,28 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1687561614.817075</v>
+        <v>1692929272.009596</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1811111296038158</v>
+        <v>0.1681617944127321</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04561810212649516</v>
+        <v>0.04710825654447329</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>9</v>
-      </c>
-      <c r="J3" t="n">
-        <v>843780799.093956</v>
       </c>
     </row>
     <row r="4">
@@ -558,28 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4099217524.419199</v>
+        <v>4030356793.953136</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1418944329811193</v>
+        <v>0.1147070907620221</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02819077593109823</v>
+        <v>0.03437039002784698</v>
       </c>
       <c r="H4" t="b">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>158</v>
-      </c>
-      <c r="J4" t="n">
-        <v>2049608783.446763</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -592,28 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>2766008231.829539</v>
+        <v>3725784156.191976</v>
       </c>
       <c r="F5" t="n">
-        <v>0.09326129606445419</v>
+        <v>0.06946360097288094</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04107936781673272</v>
+        <v>0.03855482188763321</v>
       </c>
       <c r="H5" t="b">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>161</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1383004201.270708</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -626,28 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2820363259.301282</v>
+        <v>2791931172.629233</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1192993413556591</v>
+        <v>0.1413760427469732</v>
       </c>
       <c r="G6" t="n">
-        <v>0.05590458007048237</v>
+        <v>0.03452934235950818</v>
       </c>
       <c r="H6" t="b">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>82</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1410181570.483298</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -666,22 +626,16 @@
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2796013116.289837</v>
+        <v>2560180033.920962</v>
       </c>
       <c r="F7" t="n">
-        <v>0.09239900986767208</v>
+        <v>0.1008619407432049</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04609345278406524</v>
+        <v>0.04630867408670086</v>
       </c>
       <c r="H7" t="b">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>137</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1398006542.701403</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -694,28 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2925380821.759912</v>
+        <v>2884436180.150578</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1822435811612954</v>
+        <v>0.1902362589790773</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0325353854832174</v>
+        <v>0.02803898917947436</v>
       </c>
       <c r="H8" t="b">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>139</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1462690460.78429</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -728,28 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1491147076.346931</v>
+        <v>2188586463.932807</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1364073197583335</v>
+        <v>0.1846350158197292</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02968074682590023</v>
+        <v>0.0327691788002062</v>
       </c>
       <c r="H9" t="b">
-        <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>745573635.4000579</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -768,22 +710,16 @@
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5535373202.261329</v>
+        <v>4388773842.062633</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1358308545630139</v>
+        <v>0.1894859507630586</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03289346290423532</v>
+        <v>0.03752450181279884</v>
       </c>
       <c r="H10" t="b">
         <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>184</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2767686741.916342</v>
       </c>
     </row>
     <row r="11">
@@ -802,22 +738,16 @@
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>4088379696.992782</v>
+        <v>4143879915.383427</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1593993643791861</v>
+        <v>0.1714657475772058</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04211630340341398</v>
+        <v>0.04468318192999721</v>
       </c>
       <c r="H11" t="b">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>180</v>
-      </c>
-      <c r="J11" t="n">
-        <v>2044189867.395212</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -830,28 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>3207555487.171826</v>
+        <v>2485159298.101785</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1332179971786325</v>
+        <v>0.123551965845318</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03805495585053865</v>
+        <v>0.0512813255615012</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>150</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1603777780.611297</v>
       </c>
     </row>
     <row r="13">
@@ -864,28 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3767292740.189442</v>
+        <v>3958997616.493156</v>
       </c>
       <c r="F13" t="n">
-        <v>0.08684325797124146</v>
+        <v>0.06931023666556103</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02605017555481699</v>
+        <v>0.02953080314671987</v>
       </c>
       <c r="H13" t="b">
         <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>147</v>
-      </c>
-      <c r="J13" t="n">
-        <v>1883646436.861336</v>
       </c>
     </row>
     <row r="14">
@@ -898,28 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3225632309.571921</v>
+        <v>2841307063.151597</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1846470526848507</v>
+        <v>0.1756490427022764</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03456702518235919</v>
+        <v>0.03358907835183583</v>
       </c>
       <c r="H14" t="b">
         <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>140</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1612816172.90502</v>
       </c>
     </row>
     <row r="15">
@@ -932,28 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1440964160.091804</v>
+        <v>1145629253.770776</v>
       </c>
       <c r="F15" t="n">
-        <v>0.08812014907746479</v>
+        <v>0.06724976263699482</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03260518187231058</v>
+        <v>0.04561001186913089</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>720482152.1763302</v>
       </c>
     </row>
     <row r="16">
@@ -966,28 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2621744427.413858</v>
+        <v>2458421391.329721</v>
       </c>
       <c r="F16" t="n">
-        <v>0.100319914032006</v>
+        <v>0.07477084992384336</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04264019219064948</v>
+        <v>0.04998684432625796</v>
       </c>
       <c r="H16" t="b">
-        <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>90</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1310872233.678222</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
@@ -1000,28 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3386512482.453409</v>
+        <v>5213753127.109578</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1365150832943034</v>
+        <v>0.153443552176493</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04320664690342652</v>
+        <v>0.04826135644270498</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>128</v>
-      </c>
-      <c r="J17" t="n">
-        <v>1693256306.157753</v>
       </c>
     </row>
     <row r="18">
@@ -1034,28 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2626509676.335701</v>
+        <v>2971762881.413071</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1534145217817048</v>
+        <v>0.1140788991447539</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02836575783124678</v>
+        <v>0.02338719972299962</v>
       </c>
       <c r="H18" t="b">
-        <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>144</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1313254895.491119</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
@@ -1068,28 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1033747012.980444</v>
+        <v>1264625491.314921</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1484814133352441</v>
+        <v>0.1429418629594738</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02536257638043947</v>
+        <v>0.02108421838560218</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>516873543.9648504</v>
       </c>
     </row>
     <row r="20">
@@ -1108,22 +990,16 @@
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2396548431.582113</v>
+        <v>1899871703.140673</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1503718793593692</v>
+        <v>0.1086220039730102</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02857667098563972</v>
+        <v>0.02440997507255896</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>60</v>
-      </c>
-      <c r="J20" t="n">
-        <v>1198274199.922786</v>
       </c>
     </row>
     <row r="21">
@@ -1136,28 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2636555017.696947</v>
+        <v>1759131066.750724</v>
       </c>
       <c r="F21" t="n">
-        <v>0.08856328822233188</v>
+        <v>0.08329265649726682</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03766962832687568</v>
+        <v>0.03028970572264472</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>34</v>
-      </c>
-      <c r="J21" t="n">
-        <v>1318277483.947208</v>
       </c>
     </row>
     <row r="22">
@@ -1176,22 +1046,16 @@
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3626490396.284789</v>
+        <v>2478184350.627754</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1201052160867682</v>
+        <v>0.1393930325396008</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04964161437928902</v>
+        <v>0.0516270129064419</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>121</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1813245222.176276</v>
       </c>
     </row>
     <row r="23">
@@ -1204,28 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1114095038.18687</v>
+        <v>1266039554.277734</v>
       </c>
       <c r="F23" t="n">
-        <v>0.132110739520523</v>
+        <v>0.1583839765370364</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04514051130884073</v>
+        <v>0.04664950175370344</v>
       </c>
       <c r="H23" t="b">
-        <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>557047570.0747823</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24">
@@ -1238,28 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2761224501.650468</v>
+        <v>3890080449.024858</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1440173929800134</v>
+        <v>0.1490054092398426</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03544578110125114</v>
+        <v>0.02279642245231384</v>
       </c>
       <c r="H24" t="b">
-        <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>127</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1380612302.126706</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1272,28 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1402272518.594195</v>
+        <v>904979962.6308507</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1027220936243241</v>
+        <v>0.08841969417481109</v>
       </c>
       <c r="G25" t="n">
-        <v>0.01924349418732961</v>
+        <v>0.0279664552090988</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>701136230.7509466</v>
       </c>
     </row>
     <row r="26">
@@ -1306,28 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>992963277.3756928</v>
+        <v>890556357.1285044</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1180124810577682</v>
+        <v>0.09658586337956356</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03010123042504452</v>
+        <v>0.02779995378015106</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>496481609.074681</v>
       </c>
     </row>
     <row r="27">
@@ -1346,22 +1186,16 @@
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4496901632.815005</v>
+        <v>4068845718.054842</v>
       </c>
       <c r="F27" t="n">
-        <v>0.09789731521490473</v>
+        <v>0.1165123202149763</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02429648414950948</v>
+        <v>0.02013414420494385</v>
       </c>
       <c r="H27" t="b">
         <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>102</v>
-      </c>
-      <c r="J27" t="n">
-        <v>2248450801.895736</v>
       </c>
     </row>
     <row r="28">
@@ -1374,28 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3854027935.923557</v>
+        <v>2544471702.486701</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1433802229238632</v>
+        <v>0.09206942906268041</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03164200111744852</v>
+        <v>0.03687452154554167</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>142</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1927014053.343643</v>
       </c>
     </row>
     <row r="29">
@@ -1414,22 +1242,16 @@
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>3856726403.972028</v>
+        <v>5706110381.690535</v>
       </c>
       <c r="F29" t="n">
-        <v>0.0957575307692001</v>
+        <v>0.1348482217291001</v>
       </c>
       <c r="G29" t="n">
-        <v>0.02982466240868024</v>
+        <v>0.03064998720289444</v>
       </c>
       <c r="H29" t="b">
         <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>193</v>
-      </c>
-      <c r="J29" t="n">
-        <v>1928363228.743659</v>
       </c>
     </row>
     <row r="30">
@@ -1442,28 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1737773616.444381</v>
+        <v>1942769427.246612</v>
       </c>
       <c r="F30" t="n">
-        <v>0.09470605997797994</v>
+        <v>0.1189117977885136</v>
       </c>
       <c r="G30" t="n">
-        <v>0.0271053410933612</v>
+        <v>0.03965333662311637</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>868886815.8086464</v>
       </c>
     </row>
     <row r="31">
@@ -1476,28 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1019252989.836541</v>
+        <v>955775913.6224631</v>
       </c>
       <c r="F31" t="n">
-        <v>0.09548878594923675</v>
+        <v>0.07302363696834116</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03581089715088103</v>
+        <v>0.03518561782093808</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>509626488.9433921</v>
       </c>
     </row>
     <row r="32">
@@ -1510,28 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1872973405.50617</v>
+        <v>1725433255.416286</v>
       </c>
       <c r="F32" t="n">
-        <v>0.08597723520235005</v>
+        <v>0.08307132024781944</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02650275928172722</v>
+        <v>0.02994515615842651</v>
       </c>
       <c r="H32" t="b">
-        <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>936486848.351873</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33">
@@ -1550,22 +1354,16 @@
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2171364719.466491</v>
+        <v>2833090108.224555</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1327887757708399</v>
+        <v>0.2087987090290862</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05225434618788048</v>
+        <v>0.0552524542965966</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
-      </c>
-      <c r="I33" t="n">
-        <v>134</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1085682425.969694</v>
       </c>
     </row>
     <row r="34">
@@ -1584,22 +1382,16 @@
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1499036731.250834</v>
+        <v>1514558951.885622</v>
       </c>
       <c r="F34" t="n">
-        <v>0.09710825412864962</v>
+        <v>0.1205422167054711</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02306318286205183</v>
+        <v>0.0172844219270078</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>749518321.6287918</v>
       </c>
     </row>
     <row r="35">
@@ -1612,28 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>903647101.4692062</v>
+        <v>1136374564.582175</v>
       </c>
       <c r="F35" t="n">
-        <v>0.08024422228039949</v>
+        <v>0.114054317444367</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03073969487986123</v>
+        <v>0.02742183331988055</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>451823590.4510981</v>
       </c>
     </row>
     <row r="36">
@@ -1646,28 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2467563719.318733</v>
+        <v>2357943256.402575</v>
       </c>
       <c r="F36" t="n">
-        <v>0.134427596073347</v>
+        <v>0.1172757684393321</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02585544759841665</v>
+        <v>0.02077657487747606</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>110</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1233781884.270268</v>
       </c>
     </row>
     <row r="37">
@@ -1680,28 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2691248477.293366</v>
+        <v>2630357806.101728</v>
       </c>
       <c r="F37" t="n">
-        <v>0.08647813976538526</v>
+        <v>0.09916807796278017</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03846092001110506</v>
+        <v>0.04142247806981975</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>118</v>
-      </c>
-      <c r="J37" t="n">
-        <v>1345624361.02347</v>
       </c>
     </row>
     <row r="38">
@@ -1714,28 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1552288298.682652</v>
+        <v>2097480259.378767</v>
       </c>
       <c r="F38" t="n">
-        <v>0.09822600525402936</v>
+        <v>0.08663152487341327</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02829759464461528</v>
+        <v>0.02612933440272634</v>
       </c>
       <c r="H38" t="b">
-        <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>776144191.2303917</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39">
@@ -1754,22 +1522,16 @@
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1628210399.185843</v>
+        <v>1436244902.152424</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1529239253810938</v>
+        <v>0.1313983361371525</v>
       </c>
       <c r="G39" t="n">
-        <v>0.01996236151623023</v>
+        <v>0.02583347638229211</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>814105250.5766752</v>
       </c>
     </row>
     <row r="40">
@@ -1782,28 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1601146831.150081</v>
+        <v>1581858339.807957</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1120642178237224</v>
+        <v>0.1612577313854312</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05108367551808279</v>
+        <v>0.0590778346701902</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>800573356.4572294</v>
       </c>
     </row>
     <row r="41">
@@ -1816,28 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>1815034560.170548</v>
+        <v>2502356325.111086</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1281929359244704</v>
+        <v>0.1264740350735881</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04674666715282968</v>
+        <v>0.04481787516044058</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>109</v>
-      </c>
-      <c r="J41" t="n">
-        <v>907517372.4004626</v>
       </c>
     </row>
     <row r="42">
@@ -1850,28 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3456448569.799991</v>
+        <v>4140523950.902608</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1066942308205746</v>
+        <v>0.08069540546369441</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03056992717628707</v>
+        <v>0.04240251630605551</v>
       </c>
       <c r="H42" t="b">
         <v>1</v>
-      </c>
-      <c r="I42" t="n">
-        <v>143</v>
-      </c>
-      <c r="J42" t="n">
-        <v>1728224276.770477</v>
       </c>
     </row>
     <row r="43">
@@ -1884,28 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2320020217.321866</v>
+        <v>2513809195.363189</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1335124201151265</v>
+        <v>0.142182843718615</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02425006235378136</v>
+        <v>0.01620968945442024</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>151</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1160010175.441568</v>
       </c>
     </row>
     <row r="44">
@@ -1918,28 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2023727078.513989</v>
+        <v>1788045654.608262</v>
       </c>
       <c r="F44" t="n">
-        <v>0.0988762926882842</v>
+        <v>0.06301708485412656</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02434232273314062</v>
+        <v>0.03331076536529928</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>1011863650.33802</v>
       </c>
     </row>
     <row r="45">
@@ -1952,28 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1989754868.907806</v>
+        <v>1730174475.043781</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1227557393682245</v>
+        <v>0.15485070437637</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04120663026623969</v>
+        <v>0.05277556451833468</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>994877424.3112324</v>
       </c>
     </row>
     <row r="46">
@@ -1986,28 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4498200788.269264</v>
+        <v>4200821776.015463</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1743010617757884</v>
+        <v>0.1337886956324213</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04640444193911567</v>
+        <v>0.05893953657604443</v>
       </c>
       <c r="H46" t="b">
         <v>1</v>
-      </c>
-      <c r="I46" t="n">
-        <v>155</v>
-      </c>
-      <c r="J46" t="n">
-        <v>2249100392.206334</v>
       </c>
     </row>
     <row r="47">
@@ -2026,22 +1746,16 @@
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4744693326.840585</v>
+        <v>4517618370.683792</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1532811943484825</v>
+        <v>0.1479261628241056</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04289033389439942</v>
+        <v>0.04399682998481483</v>
       </c>
       <c r="H47" t="b">
         <v>1</v>
-      </c>
-      <c r="I47" t="n">
-        <v>118</v>
-      </c>
-      <c r="J47" t="n">
-        <v>2372346704.759444</v>
       </c>
     </row>
     <row r="48">
@@ -2054,28 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>2845589827.003961</v>
+        <v>3973551533.86165</v>
       </c>
       <c r="F48" t="n">
-        <v>0.0730764604169169</v>
+        <v>0.07063773437711517</v>
       </c>
       <c r="G48" t="n">
-        <v>0.0388166913947051</v>
+        <v>0.02807524186010833</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
-      </c>
-      <c r="I48" t="n">
-        <v>142</v>
-      </c>
-      <c r="J48" t="n">
-        <v>1422795015.016188</v>
       </c>
     </row>
     <row r="49">
@@ -2088,28 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1685075108.363566</v>
+        <v>1941407180.832434</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1456937349069388</v>
+        <v>0.1863312252061837</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03711246270260464</v>
+        <v>0.02898187975866526</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>842537557.4513725</v>
       </c>
     </row>
     <row r="50">
@@ -2122,28 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3573235918.300612</v>
+        <v>2697142130.496982</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1402789134956299</v>
+        <v>0.1140785698839347</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03340939548951238</v>
+        <v>0.03421532868447855</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
-      </c>
-      <c r="I50" t="n">
-        <v>149</v>
-      </c>
-      <c r="J50" t="n">
-        <v>1786617978.219601</v>
       </c>
     </row>
     <row r="51">
@@ -2156,28 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1430573003.513684</v>
+        <v>1224842547.82027</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1552483249083278</v>
+        <v>0.1278596390968857</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04035830312580021</v>
+        <v>0.03623692321315831</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>715286515.9623817</v>
       </c>
     </row>
     <row r="52">
@@ -2196,22 +1886,16 @@
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3906609737.059812</v>
+        <v>4267598799.028706</v>
       </c>
       <c r="F52" t="n">
-        <v>0.09617690720239408</v>
+        <v>0.08522820433859726</v>
       </c>
       <c r="G52" t="n">
-        <v>0.0611238440657486</v>
+        <v>0.04070072208718747</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
-      </c>
-      <c r="I52" t="n">
-        <v>180</v>
-      </c>
-      <c r="J52" t="n">
-        <v>1953304930.523539</v>
       </c>
     </row>
     <row r="53">
@@ -2224,28 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3792944985.089842</v>
+        <v>3151914874.33579</v>
       </c>
       <c r="F53" t="n">
-        <v>0.2026366222411809</v>
+        <v>0.1583682677542844</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02771256833312848</v>
+        <v>0.03111566628390611</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
-      </c>
-      <c r="I53" t="n">
-        <v>128</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1896472470.251609</v>
       </c>
     </row>
     <row r="54">
@@ -2264,22 +1942,16 @@
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3659929288.00225</v>
+        <v>3194668508.411353</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1193769214817987</v>
+        <v>0.1211251962874822</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03857884283650263</v>
+        <v>0.04971788227958442</v>
       </c>
       <c r="H54" t="b">
         <v>0</v>
-      </c>
-      <c r="I54" t="n">
-        <v>143</v>
-      </c>
-      <c r="J54" t="n">
-        <v>1829964681.385349</v>
       </c>
     </row>
     <row r="55">
@@ -2292,28 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3355425195.409345</v>
+        <v>3295968437.899302</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2072312504663245</v>
+        <v>0.1403165930656672</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02917360403551264</v>
+        <v>0.03161220142553019</v>
       </c>
       <c r="H55" t="b">
         <v>0</v>
-      </c>
-      <c r="I55" t="n">
-        <v>114</v>
-      </c>
-      <c r="J55" t="n">
-        <v>1677712544.164322</v>
       </c>
     </row>
     <row r="56">
@@ -2332,22 +1998,16 @@
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1461475521.379685</v>
+        <v>1547978754.679373</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1334694756127319</v>
+        <v>0.1222389439683124</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04218702130060164</v>
+        <v>0.04827172107655903</v>
       </c>
       <c r="H56" t="b">
-        <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>730737808.6895014</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57">
@@ -2366,22 +2026,16 @@
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3548452711.176332</v>
+        <v>2972215265.626412</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1191600536842961</v>
+        <v>0.1245671286638019</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02626552239519858</v>
+        <v>0.02706992174590101</v>
       </c>
       <c r="H57" t="b">
-        <v>1</v>
-      </c>
-      <c r="I57" t="n">
-        <v>138</v>
-      </c>
-      <c r="J57" t="n">
-        <v>1774226406.060492</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
@@ -2400,22 +2054,16 @@
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1265242259.293674</v>
+        <v>1362150997.931442</v>
       </c>
       <c r="F58" t="n">
-        <v>0.2012221291895792</v>
+        <v>0.1276935401446748</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03389467947756077</v>
+        <v>0.02611104901694005</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>632621182.2181032</v>
       </c>
     </row>
     <row r="59">
@@ -2434,22 +2082,16 @@
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>5280718426.073269</v>
+        <v>5014489901.784515</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1229553417748319</v>
+        <v>0.1093405666173047</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03926601854414687</v>
+        <v>0.04022302631848422</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
-      </c>
-      <c r="I59" t="n">
-        <v>119</v>
-      </c>
-      <c r="J59" t="n">
-        <v>2640359127.222684</v>
       </c>
     </row>
     <row r="60">
@@ -2462,28 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2908007951.657288</v>
+        <v>3428858436.5949</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1291233614537439</v>
+        <v>0.1691652595489548</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02640031507108554</v>
+        <v>0.02942093636045045</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
-      </c>
-      <c r="I60" t="n">
-        <v>136</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1454004036.547971</v>
       </c>
     </row>
     <row r="61">
@@ -2502,22 +2138,16 @@
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>3167964096.847904</v>
+        <v>2677852457.332556</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1309717430491553</v>
+        <v>0.1275474145291375</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02477671831256597</v>
+        <v>0.02599069488078056</v>
       </c>
       <c r="H61" t="b">
-        <v>1</v>
-      </c>
-      <c r="I61" t="n">
-        <v>149</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1583982013.070039</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
@@ -2536,22 +2166,16 @@
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1361277341.558436</v>
+        <v>1733491428.240436</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1845758571463335</v>
+        <v>0.1925204503201401</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04320275597047635</v>
+        <v>0.04182727427262388</v>
       </c>
       <c r="H62" t="b">
-        <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>680638633.0570182</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63">
@@ -2564,28 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>3754953810.185116</v>
+        <v>4496333622.027444</v>
       </c>
       <c r="F63" t="n">
-        <v>0.07873777896437213</v>
+        <v>0.1004803665225052</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03398358580928422</v>
+        <v>0.03101847600920053</v>
       </c>
       <c r="H63" t="b">
         <v>0</v>
-      </c>
-      <c r="I63" t="n">
-        <v>125</v>
-      </c>
-      <c r="J63" t="n">
-        <v>1877476978.455699</v>
       </c>
     </row>
     <row r="64">
@@ -2598,28 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4961072834.332928</v>
+        <v>5449539665.25615</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1809560063745333</v>
+        <v>0.1553450744282898</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03312398683929502</v>
+        <v>0.03005828904526648</v>
       </c>
       <c r="H64" t="b">
-        <v>1</v>
-      </c>
-      <c r="I64" t="n">
-        <v>136</v>
-      </c>
-      <c r="J64" t="n">
-        <v>2480536520.647411</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
@@ -2632,28 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5734516191.140951</v>
+        <v>3877113086.984002</v>
       </c>
       <c r="F65" t="n">
-        <v>0.118388302698952</v>
+        <v>0.1741472407117468</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02767014552926595</v>
+        <v>0.0289120511019408</v>
       </c>
       <c r="H65" t="b">
-        <v>1</v>
-      </c>
-      <c r="I65" t="n">
-        <v>156</v>
-      </c>
-      <c r="J65" t="n">
-        <v>2867258010.652102</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66">
@@ -2666,28 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4092830824.859713</v>
+        <v>4298565100.517333</v>
       </c>
       <c r="F66" t="n">
-        <v>0.133732173448884</v>
+        <v>0.1518488624077052</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04311442177018132</v>
+        <v>0.04126161192377981</v>
       </c>
       <c r="H66" t="b">
-        <v>1</v>
-      </c>
-      <c r="I66" t="n">
-        <v>128</v>
-      </c>
-      <c r="J66" t="n">
-        <v>2046415391.006554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67">
@@ -2700,28 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2194167949.421367</v>
+        <v>2300458545.912314</v>
       </c>
       <c r="F67" t="n">
-        <v>0.07100586081126002</v>
+        <v>0.08505695891219817</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03179207544843089</v>
+        <v>0.03697702225101297</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
-      </c>
-      <c r="I67" t="n">
-        <v>140</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1097084061.252343</v>
       </c>
     </row>
     <row r="68">
@@ -2734,28 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5885158111.268564</v>
+        <v>5560255270.672703</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1157714008830106</v>
+        <v>0.1305426687598728</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04441701767802875</v>
+        <v>0.04655784609416071</v>
       </c>
       <c r="H68" t="b">
         <v>1</v>
-      </c>
-      <c r="I68" t="n">
-        <v>141</v>
-      </c>
-      <c r="J68" t="n">
-        <v>2942579165.694187</v>
       </c>
     </row>
     <row r="69">
@@ -2768,28 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2164905758.913765</v>
+        <v>1870417429.729303</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1692092551797291</v>
+        <v>0.1552215368507905</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05654775053707269</v>
+        <v>0.0573270036387236</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>1</v>
-      </c>
-      <c r="J69" t="n">
-        <v>1082452905.73804</v>
       </c>
     </row>
     <row r="70">
@@ -2802,28 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2983741522.846721</v>
+        <v>2880921187.095386</v>
       </c>
       <c r="F70" t="n">
-        <v>0.0766477610053455</v>
+        <v>0.06392930255262951</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03351812118851646</v>
+        <v>0.03726904328699123</v>
       </c>
       <c r="H70" t="b">
-        <v>1</v>
-      </c>
-      <c r="I70" t="n">
-        <v>124</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1491870737.447369</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
@@ -2836,28 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4618008234.946523</v>
+        <v>4470928055.022389</v>
       </c>
       <c r="F71" t="n">
-        <v>0.134483292265613</v>
+        <v>0.1653190043634708</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02863823192273137</v>
+        <v>0.02989586356386775</v>
       </c>
       <c r="H71" t="b">
         <v>0</v>
-      </c>
-      <c r="I71" t="n">
-        <v>159</v>
-      </c>
-      <c r="J71" t="n">
-        <v>2309004194.713485</v>
       </c>
     </row>
     <row r="72">
@@ -2870,28 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1881427119.787898</v>
+        <v>1775906745.928211</v>
       </c>
       <c r="F72" t="n">
-        <v>0.1036721429618875</v>
+        <v>0.1010594497792011</v>
       </c>
       <c r="G72" t="n">
-        <v>0.0379989989445742</v>
+        <v>0.05156768367643765</v>
       </c>
       <c r="H72" t="b">
-        <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>940713525.3973502</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73">
@@ -2904,28 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2775212546.300749</v>
+        <v>3512043328.481436</v>
       </c>
       <c r="F73" t="n">
-        <v>0.08210226051300369</v>
+        <v>0.1059190602345194</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03218954205991172</v>
+        <v>0.03352468038336796</v>
       </c>
       <c r="H73" t="b">
-        <v>1</v>
-      </c>
-      <c r="I73" t="n">
-        <v>165</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1387606289.719599</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
@@ -2944,22 +2502,16 @@
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3402133281.959549</v>
+        <v>2896153241.441555</v>
       </c>
       <c r="F74" t="n">
-        <v>0.136926784249403</v>
+        <v>0.1191530500349608</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03151331594450692</v>
+        <v>0.02678730050685555</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
-      </c>
-      <c r="I74" t="n">
-        <v>149</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1701066671.651194</v>
       </c>
     </row>
     <row r="75">
@@ -2972,28 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2338618048.820253</v>
+        <v>1853241152.879425</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1579621038157265</v>
+        <v>0.1078973913434436</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03211615832169987</v>
+        <v>0.03486137866131526</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
-        <v>1169308956.933628</v>
       </c>
     </row>
     <row r="76">
@@ -3006,28 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3365614245.307707</v>
+        <v>4421489708.660511</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1036564768991968</v>
+        <v>0.1130850812635254</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02343869604454214</v>
+        <v>0.02364574224715205</v>
       </c>
       <c r="H76" t="b">
         <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>109</v>
-      </c>
-      <c r="J76" t="n">
-        <v>1682807080.764879</v>
       </c>
     </row>
     <row r="77">
@@ -3040,28 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2296129940.205332</v>
+        <v>1543181518.945664</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1541041593413366</v>
+        <v>0.1165908740743174</v>
       </c>
       <c r="G77" t="n">
-        <v>0.0215204904575335</v>
+        <v>0.02689133690154573</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>1148065075.413452</v>
       </c>
     </row>
     <row r="78">
@@ -3074,28 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3718083544.59754</v>
+        <v>4521334338.541471</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1220697497708049</v>
+        <v>0.1258936305930605</v>
       </c>
       <c r="G78" t="n">
-        <v>0.05659291747552816</v>
+        <v>0.04622369537798816</v>
       </c>
       <c r="H78" t="b">
-        <v>0</v>
-      </c>
-      <c r="I78" t="n">
-        <v>152</v>
-      </c>
-      <c r="J78" t="n">
-        <v>1859041758.233127</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -3114,22 +2642,16 @@
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1508742466.181987</v>
+        <v>1314768128.77167</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1706184230222828</v>
+        <v>0.1676379343359695</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02470535241622509</v>
+        <v>0.02547299949049066</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>754371268.8433849</v>
       </c>
     </row>
     <row r="80">
@@ -3142,28 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>5617270671.715658</v>
+        <v>3793894104.563448</v>
       </c>
       <c r="F80" t="n">
-        <v>0.1082816981359214</v>
+        <v>0.09267055203488614</v>
       </c>
       <c r="G80" t="n">
-        <v>0.0267090455375978</v>
+        <v>0.02879050723297445</v>
       </c>
       <c r="H80" t="b">
         <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>94</v>
-      </c>
-      <c r="J80" t="n">
-        <v>2808635415.78774</v>
       </c>
     </row>
     <row r="81">
@@ -3176,28 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>5191883588.194203</v>
+        <v>3326052534.501495</v>
       </c>
       <c r="F81" t="n">
-        <v>0.09639235346684143</v>
+        <v>0.08766304439813088</v>
       </c>
       <c r="G81" t="n">
-        <v>0.03138904758553761</v>
+        <v>0.02263838382837902</v>
       </c>
       <c r="H81" t="b">
-        <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>99</v>
-      </c>
-      <c r="J81" t="n">
-        <v>2595941801.584929</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82">
@@ -3210,28 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>5438692248.427232</v>
+        <v>3896444829.940987</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1862880324906206</v>
+        <v>0.1614354759227787</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02053939146550045</v>
+        <v>0.02744973880688494</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
-      </c>
-      <c r="I82" t="n">
-        <v>154</v>
-      </c>
-      <c r="J82" t="n">
-        <v>2719346083.713937</v>
       </c>
     </row>
     <row r="83">
@@ -3250,22 +2754,16 @@
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2420480364.389821</v>
+        <v>1919897926.242886</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1133334674543472</v>
+        <v>0.1159932608374362</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03089628940040097</v>
+        <v>0.03708281984195495</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>1</v>
-      </c>
-      <c r="J83" t="n">
-        <v>1210240219.859343</v>
       </c>
     </row>
     <row r="84">
@@ -3284,22 +2782,16 @@
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2572575789.648508</v>
+        <v>2319597340.994882</v>
       </c>
       <c r="F84" t="n">
-        <v>0.08984015820770287</v>
+        <v>0.09204468988478262</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04305726614611084</v>
+        <v>0.03619272294689127</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>6</v>
-      </c>
-      <c r="J84" t="n">
-        <v>1286287815.973175</v>
       </c>
     </row>
     <row r="85">
@@ -3312,28 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2355245938.137456</v>
+        <v>2444195701.81181</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1629727821044059</v>
+        <v>0.1562932428926386</v>
       </c>
       <c r="G85" t="n">
-        <v>0.05151669855766637</v>
+        <v>0.05321879091004259</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
-      </c>
-      <c r="I85" t="n">
-        <v>165</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1177622958.044441</v>
       </c>
     </row>
     <row r="86">
@@ -3346,28 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2479067235.992445</v>
+        <v>1924201463.066769</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1481760643070043</v>
+        <v>0.123455270601946</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02746276080360939</v>
+        <v>0.02510297237920922</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>55</v>
-      </c>
-      <c r="J86" t="n">
-        <v>1239533712.257131</v>
       </c>
     </row>
     <row r="87">
@@ -3386,22 +2866,16 @@
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1274630874.010818</v>
+        <v>1434298411.049897</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1457175983664954</v>
+        <v>0.1533433217094844</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03878843757458002</v>
+        <v>0.03361614789649696</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>637315511.7318004</v>
       </c>
     </row>
     <row r="88">
@@ -3414,28 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3478479082.692635</v>
+        <v>3364654134.67539</v>
       </c>
       <c r="F88" t="n">
-        <v>0.125054678346118</v>
+        <v>0.1666367729816554</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02645005517252441</v>
+        <v>0.02945768011945611</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
-      </c>
-      <c r="I88" t="n">
-        <v>173</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1739239619.089254</v>
       </c>
     </row>
     <row r="89">
@@ -3448,28 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3422533715.744302</v>
+        <v>3039695765.908071</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1114577966666255</v>
+        <v>0.1463444144843812</v>
       </c>
       <c r="G89" t="n">
-        <v>0.02826314932992103</v>
+        <v>0.03459204545676973</v>
       </c>
       <c r="H89" t="b">
-        <v>1</v>
-      </c>
-      <c r="I89" t="n">
-        <v>147</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1711266865.01462</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90">
@@ -3488,22 +2950,16 @@
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>2004395432.538517</v>
+        <v>1482094103.165296</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1275220274648824</v>
+        <v>0.1332782788528822</v>
       </c>
       <c r="G90" t="n">
-        <v>0.0465393164733677</v>
+        <v>0.04572484630768289</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>1002197787.308976</v>
       </c>
     </row>
     <row r="91">
@@ -3516,28 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1479496620.473168</v>
+        <v>1357367287.734519</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1259603624114209</v>
+        <v>0.127579659281713</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04624680455437166</v>
+        <v>0.05192173424071466</v>
       </c>
       <c r="H91" t="b">
-        <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>739748351.9070324</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92">
@@ -3550,28 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2508841292.575937</v>
+        <v>2461621089.597576</v>
       </c>
       <c r="F92" t="n">
-        <v>0.09456792661175574</v>
+        <v>0.07794371333407098</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04333241808981293</v>
+        <v>0.03641017257866188</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
-      </c>
-      <c r="I92" t="n">
-        <v>122</v>
-      </c>
-      <c r="J92" t="n">
-        <v>1254420630.914721</v>
       </c>
     </row>
     <row r="93">
@@ -3590,22 +3034,16 @@
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4272373351.991491</v>
+        <v>4248273511.759223</v>
       </c>
       <c r="F93" t="n">
-        <v>0.107051443015655</v>
+        <v>0.1214634307552942</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04944916163622031</v>
+        <v>0.04683723311296573</v>
       </c>
       <c r="H93" t="b">
         <v>0</v>
-      </c>
-      <c r="I93" t="n">
-        <v>132</v>
-      </c>
-      <c r="J93" t="n">
-        <v>2136186659.033737</v>
       </c>
     </row>
     <row r="94">
@@ -3618,28 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2099323032.398411</v>
+        <v>1800070109.382375</v>
       </c>
       <c r="F94" t="n">
-        <v>0.118764854492967</v>
+        <v>0.1389268448298221</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03579509023034398</v>
+        <v>0.03191964170415303</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>2</v>
-      </c>
-      <c r="J94" t="n">
-        <v>1049661527.505409</v>
       </c>
     </row>
     <row r="95">
@@ -3652,28 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2817848528.730805</v>
+        <v>2780997287.590225</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1222473245274126</v>
+        <v>0.1292181625186911</v>
       </c>
       <c r="G95" t="n">
-        <v>0.05026456666971809</v>
+        <v>0.03737617138047989</v>
       </c>
       <c r="H95" t="b">
         <v>1</v>
-      </c>
-      <c r="I95" t="n">
-        <v>105</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1408924277.342508</v>
       </c>
     </row>
     <row r="96">
@@ -3692,22 +3118,16 @@
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2127046025.206389</v>
+        <v>1698626320.000551</v>
       </c>
       <c r="F96" t="n">
-        <v>0.09706651297654434</v>
+        <v>0.133187656214243</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03339209167390839</v>
+        <v>0.03378447255974525</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>1063522986.057233</v>
       </c>
     </row>
     <row r="97">
@@ -3720,28 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4112700681.623757</v>
+        <v>4318128705.150515</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1532292537152498</v>
+        <v>0.1253790909626627</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02560628843941975</v>
+        <v>0.02003366476509955</v>
       </c>
       <c r="H97" t="b">
         <v>0</v>
-      </c>
-      <c r="I97" t="n">
-        <v>140</v>
-      </c>
-      <c r="J97" t="n">
-        <v>2056350406.265069</v>
       </c>
     </row>
     <row r="98">
@@ -3760,22 +3174,16 @@
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3339706719.461563</v>
+        <v>2812157490.096308</v>
       </c>
       <c r="F98" t="n">
-        <v>0.09928262695243058</v>
+        <v>0.09502674481388744</v>
       </c>
       <c r="G98" t="n">
-        <v>0.027241955164831</v>
+        <v>0.03149966407452689</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>121</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1669853367.512309</v>
       </c>
     </row>
     <row r="99">
@@ -3788,28 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2306002738.346192</v>
+        <v>3230723045.859698</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1204986503943451</v>
+        <v>0.1087047623413977</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03194448238393061</v>
+        <v>0.02175809962292096</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
-      </c>
-      <c r="I99" t="n">
-        <v>138</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1153001304.833179</v>
       </c>
     </row>
     <row r="100">
@@ -3822,28 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4504887995.549453</v>
+        <v>4692452833.76469</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1477288189178384</v>
+        <v>0.1459393088288817</v>
       </c>
       <c r="G100" t="n">
-        <v>0.01929580633362591</v>
+        <v>0.02651165460699909</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
-      </c>
-      <c r="I100" t="n">
-        <v>138</v>
-      </c>
-      <c r="J100" t="n">
-        <v>2252444108.778628</v>
       </c>
     </row>
     <row r="101">
@@ -3856,28 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3331939248.249629</v>
+        <v>3272333784.866859</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1544046194993764</v>
+        <v>0.1705492409230494</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05369045155201729</v>
+        <v>0.03966549183715701</v>
       </c>
       <c r="H101" t="b">
-        <v>1</v>
-      </c>
-      <c r="I101" t="n">
-        <v>178</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1665969757.108192</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_437.xlsx
+++ b/output/fit_clients/fit_round_437.xlsx
@@ -480,19 +480,19 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2271470192.399086</v>
+        <v>2119338891.981915</v>
       </c>
       <c r="F2" t="n">
-        <v>0.09525160426201081</v>
+        <v>0.09437792008189368</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04444707724046824</v>
+        <v>0.04443754643531242</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
@@ -508,19 +508,19 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1692929272.009596</v>
+        <v>2211856185.218233</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1681617944127321</v>
+        <v>0.1559210894990036</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04710825654447329</v>
+        <v>0.03069208914432668</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
@@ -542,16 +542,16 @@
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4030356793.953136</v>
+        <v>3758244340.439552</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1147070907620221</v>
+        <v>0.1391424508276371</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03437039002784698</v>
+        <v>0.02573962223862939</v>
       </c>
       <c r="H4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -564,19 +564,19 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3725784156.191976</v>
+        <v>2649425077.418345</v>
       </c>
       <c r="F5" t="n">
-        <v>0.06946360097288094</v>
+        <v>0.09209034621082725</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03855482188763321</v>
+        <v>0.03117136972189521</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
@@ -598,13 +598,13 @@
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2791931172.629233</v>
+        <v>1948653736.553826</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1413760427469732</v>
+        <v>0.1469930792574445</v>
       </c>
       <c r="G6" t="n">
-        <v>0.03452934235950818</v>
+        <v>0.04494202413612353</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
@@ -620,19 +620,19 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2560180033.920962</v>
+        <v>3085063867.523158</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1008619407432049</v>
+        <v>0.09324565887628412</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04630867408670086</v>
+        <v>0.04804858512402972</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
@@ -648,19 +648,19 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2884436180.150578</v>
+        <v>2900266571.90739</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1902362589790773</v>
+        <v>0.168362714813696</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02803898917947436</v>
+        <v>0.02775184241135387</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
@@ -676,22 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2188586463.932807</v>
+        <v>2132238395.43388</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1846350158197292</v>
+        <v>0.1482643131381585</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0327691788002062</v>
+        <v>0.02601611259563262</v>
       </c>
       <c r="H9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -704,22 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4388773842.062633</v>
+        <v>3642719633.890872</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1894859507630586</v>
+        <v>0.1769734660464726</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03752450181279884</v>
+        <v>0.0545007043760621</v>
       </c>
       <c r="H10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -732,19 +732,19 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>4143879915.383427</v>
+        <v>4207780550.408833</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1714657475772058</v>
+        <v>0.177696391339521</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04468318192999721</v>
+        <v>0.04512801697173679</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
@@ -760,19 +760,19 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2485159298.101785</v>
+        <v>3072887836.322489</v>
       </c>
       <c r="F12" t="n">
-        <v>0.123551965845318</v>
+        <v>0.1581393068686815</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0512813255615012</v>
+        <v>0.04223228186131614</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
@@ -794,16 +794,16 @@
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3958997616.493156</v>
+        <v>3883161070.619799</v>
       </c>
       <c r="F13" t="n">
-        <v>0.06931023666556103</v>
+        <v>0.09554524702300492</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02953080314671987</v>
+        <v>0.02947770171027198</v>
       </c>
       <c r="H13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -816,22 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2841307063.151597</v>
+        <v>2859685528.360313</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1756490427022764</v>
+        <v>0.1319511965383485</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03358907835183583</v>
+        <v>0.03266766449389376</v>
       </c>
       <c r="H14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -844,19 +844,19 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1145629253.770776</v>
+        <v>1842423995.418872</v>
       </c>
       <c r="F15" t="n">
-        <v>0.06724976263699482</v>
+        <v>0.1029863455099342</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04561001186913089</v>
+        <v>0.04832567246799187</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
@@ -872,22 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2458421391.329721</v>
+        <v>2219821714.342218</v>
       </c>
       <c r="F16" t="n">
-        <v>0.07477084992384336</v>
+        <v>0.08481329730220634</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04998684432625796</v>
+        <v>0.04949111460227602</v>
       </c>
       <c r="H16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -900,19 +900,19 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>5213753127.109578</v>
+        <v>3522323532.694274</v>
       </c>
       <c r="F17" t="n">
-        <v>0.153443552176493</v>
+        <v>0.1567214382007772</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04826135644270498</v>
+        <v>0.05289412890947313</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
@@ -928,22 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2971762881.413071</v>
+        <v>3011733046.601851</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1140788991447539</v>
+        <v>0.1677337243071023</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02338719972299962</v>
+        <v>0.02526678306356851</v>
       </c>
       <c r="H18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -956,19 +956,19 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1264625491.314921</v>
+        <v>929912418.4968066</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1429418629594738</v>
+        <v>0.1711978962040238</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02108421838560218</v>
+        <v>0.01775423829613619</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
@@ -984,19 +984,19 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>1899871703.140673</v>
+        <v>2179656071.904371</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1086220039730102</v>
+        <v>0.1184551424654751</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02440997507255896</v>
+        <v>0.03032639477073253</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
@@ -1018,13 +1018,13 @@
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>1759131066.750724</v>
+        <v>1737385109.977102</v>
       </c>
       <c r="F21" t="n">
-        <v>0.08329265649726682</v>
+        <v>0.09377558830748153</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03028970572264472</v>
+        <v>0.03595104159505479</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
@@ -1040,19 +1040,19 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2478184350.627754</v>
+        <v>3870919242.617543</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1393930325396008</v>
+        <v>0.1262164440803778</v>
       </c>
       <c r="G22" t="n">
-        <v>0.0516270129064419</v>
+        <v>0.03774127227405765</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
@@ -1068,22 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1266039554.277734</v>
+        <v>1512709217.023982</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1583839765370364</v>
+        <v>0.1120463350117969</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04664950175370344</v>
+        <v>0.03773487744580413</v>
       </c>
       <c r="H23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -1096,19 +1096,19 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3890080449.024858</v>
+        <v>3160617603.610356</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1490054092398426</v>
+        <v>0.1023487340224253</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02279642245231384</v>
+        <v>0.0303983267406966</v>
       </c>
       <c r="H24" t="b">
         <v>1</v>
@@ -1124,19 +1124,19 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>904979962.6308507</v>
+        <v>987883836.3170958</v>
       </c>
       <c r="F25" t="n">
-        <v>0.08841969417481109</v>
+        <v>0.1031461017292667</v>
       </c>
       <c r="G25" t="n">
-        <v>0.0279664552090988</v>
+        <v>0.02091727101694912</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
@@ -1152,19 +1152,19 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>890556357.1285044</v>
+        <v>1181749980.361779</v>
       </c>
       <c r="F26" t="n">
-        <v>0.09658586337956356</v>
+        <v>0.1152433037849879</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02779995378015106</v>
+        <v>0.02359362647935832</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
@@ -1186,16 +1186,16 @@
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4068845718.054842</v>
+        <v>3209060609.256071</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1165123202149763</v>
+        <v>0.1206897682173141</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02013414420494385</v>
+        <v>0.0248616065536353</v>
       </c>
       <c r="H27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1208,19 +1208,19 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2544471702.486701</v>
+        <v>2625186197.71033</v>
       </c>
       <c r="F28" t="n">
-        <v>0.09206942906268041</v>
+        <v>0.1411997805931466</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03687452154554167</v>
+        <v>0.04768657286173824</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
@@ -1242,16 +1242,16 @@
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5706110381.690535</v>
+        <v>4254799194.093327</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1348482217291001</v>
+        <v>0.127211668646009</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03064998720289444</v>
+        <v>0.03551280143371158</v>
       </c>
       <c r="H29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1264,19 +1264,19 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1942769427.246612</v>
+        <v>2198745778.22083</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1189117977885136</v>
+        <v>0.1362388510651293</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03965333662311637</v>
+        <v>0.03205805639303485</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
@@ -1292,19 +1292,19 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>955775913.6224631</v>
+        <v>1281870029.54581</v>
       </c>
       <c r="F31" t="n">
-        <v>0.07302363696834116</v>
+        <v>0.11083027858616</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03518561782093808</v>
+        <v>0.03911325024550668</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
@@ -1326,16 +1326,16 @@
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1725433255.416286</v>
+        <v>1600379852.653066</v>
       </c>
       <c r="F32" t="n">
-        <v>0.08307132024781944</v>
+        <v>0.07452917544208981</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02994515615842651</v>
+        <v>0.0297673282052217</v>
       </c>
       <c r="H32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -1348,19 +1348,19 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2833090108.224555</v>
+        <v>2467382118.024855</v>
       </c>
       <c r="F33" t="n">
-        <v>0.2087987090290862</v>
+        <v>0.1519730026601878</v>
       </c>
       <c r="G33" t="n">
-        <v>0.0552524542965966</v>
+        <v>0.03976591131098454</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
@@ -1376,19 +1376,19 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1514558951.885622</v>
+        <v>1346028160.483059</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1205422167054711</v>
+        <v>0.09113773742597205</v>
       </c>
       <c r="G34" t="n">
-        <v>0.0172844219270078</v>
+        <v>0.02779110358770388</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
@@ -1404,19 +1404,19 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1136374564.582175</v>
+        <v>1149706862.157268</v>
       </c>
       <c r="F35" t="n">
-        <v>0.114054317444367</v>
+        <v>0.09654805063955721</v>
       </c>
       <c r="G35" t="n">
-        <v>0.02742183331988055</v>
+        <v>0.03508032672953709</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
@@ -1432,19 +1432,19 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2357943256.402575</v>
+        <v>2801062702.372483</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1172757684393321</v>
+        <v>0.1446391356113197</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02077657487747606</v>
+        <v>0.02336053748479252</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
@@ -1460,19 +1460,19 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2630357806.101728</v>
+        <v>2441068364.088037</v>
       </c>
       <c r="F37" t="n">
-        <v>0.09916807796278017</v>
+        <v>0.08676312118024027</v>
       </c>
       <c r="G37" t="n">
-        <v>0.04142247806981975</v>
+        <v>0.0318654081892344</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
@@ -1494,16 +1494,16 @@
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>2097480259.378767</v>
+        <v>1398774919.306994</v>
       </c>
       <c r="F38" t="n">
-        <v>0.08663152487341327</v>
+        <v>0.1005377596407831</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02612933440272634</v>
+        <v>0.03570125624872959</v>
       </c>
       <c r="H38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -1516,19 +1516,19 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1436244902.152424</v>
+        <v>2050154826.158098</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1313983361371525</v>
+        <v>0.1429285093549365</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02583347638229211</v>
+        <v>0.03233315270084201</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
@@ -1544,19 +1544,19 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1581858339.807957</v>
+        <v>1643526936.125901</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1612577313854312</v>
+        <v>0.1617706686727737</v>
       </c>
       <c r="G40" t="n">
-        <v>0.0590778346701902</v>
+        <v>0.06029839703854837</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
@@ -1572,19 +1572,19 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2502356325.111086</v>
+        <v>2588967409.643341</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1264740350735881</v>
+        <v>0.1201049277957937</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04481787516044058</v>
+        <v>0.04327662193131623</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
@@ -1600,22 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>4140523950.902608</v>
+        <v>3210617752.970828</v>
       </c>
       <c r="F42" t="n">
-        <v>0.08069540546369441</v>
+        <v>0.1096904764294929</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04240251630605551</v>
+        <v>0.04575198190186569</v>
       </c>
       <c r="H42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -1634,13 +1634,13 @@
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2513809195.363189</v>
+        <v>2689970772.332302</v>
       </c>
       <c r="F43" t="n">
-        <v>0.142182843718615</v>
+        <v>0.2053553531314638</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01620968945442024</v>
+        <v>0.02035584193853603</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
@@ -1656,19 +1656,19 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1788045654.608262</v>
+        <v>2302783735.009595</v>
       </c>
       <c r="F44" t="n">
-        <v>0.06301708485412656</v>
+        <v>0.06497314662347975</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03331076536529928</v>
+        <v>0.03088910973140138</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
@@ -1684,19 +1684,19 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1730174475.043781</v>
+        <v>1964611018.847182</v>
       </c>
       <c r="F45" t="n">
-        <v>0.15485070437637</v>
+        <v>0.1597155217840695</v>
       </c>
       <c r="G45" t="n">
-        <v>0.05277556451833468</v>
+        <v>0.04414486692557866</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
@@ -1712,19 +1712,19 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4200821776.015463</v>
+        <v>3562661833.392619</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1337886956324213</v>
+        <v>0.1242147731604435</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05893953657604443</v>
+        <v>0.04915404061107207</v>
       </c>
       <c r="H46" t="b">
         <v>1</v>
@@ -1740,19 +1740,19 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4517618370.683792</v>
+        <v>3502863001.499961</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1479261628241056</v>
+        <v>0.1757000135115299</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04399682998481483</v>
+        <v>0.04578733514552509</v>
       </c>
       <c r="H47" t="b">
         <v>1</v>
@@ -1774,13 +1774,13 @@
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3973551533.86165</v>
+        <v>4289897454.278226</v>
       </c>
       <c r="F48" t="n">
-        <v>0.07063773437711517</v>
+        <v>0.08172389365126762</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02807524186010833</v>
+        <v>0.02977655447394053</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
@@ -1802,13 +1802,13 @@
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1941407180.832434</v>
+        <v>1837233002.912698</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1863312252061837</v>
+        <v>0.1373380949853787</v>
       </c>
       <c r="G49" t="n">
-        <v>0.02898187975866526</v>
+        <v>0.04366920501056428</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
@@ -1824,19 +1824,19 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>2697142130.496982</v>
+        <v>4202436161.782939</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1140785698839347</v>
+        <v>0.1551798888662122</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03421532868447855</v>
+        <v>0.04157775839778329</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
@@ -1852,19 +1852,19 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1224842547.82027</v>
+        <v>1220845310.504838</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1278596390968857</v>
+        <v>0.1764535236979419</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03623692321315831</v>
+        <v>0.05038227253035093</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
@@ -1880,19 +1880,19 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4267598799.028706</v>
+        <v>3963034251.568988</v>
       </c>
       <c r="F52" t="n">
-        <v>0.08522820433859726</v>
+        <v>0.08718558821493842</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04070072208718747</v>
+        <v>0.04537032143369436</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
@@ -1908,19 +1908,19 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3151914874.33579</v>
+        <v>2405856662.66258</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1583682677542844</v>
+        <v>0.2045145705958601</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03111566628390611</v>
+        <v>0.02715070737312549</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
@@ -1942,16 +1942,16 @@
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3194668508.411353</v>
+        <v>4381859361.073359</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1211251962874822</v>
+        <v>0.1341138512086211</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04971788227958442</v>
+        <v>0.05097328571193191</v>
       </c>
       <c r="H54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -1970,16 +1970,16 @@
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3295968437.899302</v>
+        <v>3910413835.792405</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1403165930656672</v>
+        <v>0.1831305364912588</v>
       </c>
       <c r="G55" t="n">
-        <v>0.03161220142553019</v>
+        <v>0.02975174311056429</v>
       </c>
       <c r="H55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -1998,16 +1998,16 @@
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1547978754.679373</v>
+        <v>1533932202.813261</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1222389439683124</v>
+        <v>0.1024071244895686</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04827172107655903</v>
+        <v>0.05322764777892874</v>
       </c>
       <c r="H56" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57">
@@ -2026,13 +2026,13 @@
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>2972215265.626412</v>
+        <v>3687750596.354239</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1245671286638019</v>
+        <v>0.1475557360310218</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02706992174590101</v>
+        <v>0.02652049875124513</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
@@ -2048,19 +2048,19 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1362150997.931442</v>
+        <v>1755273644.401745</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1276935401446748</v>
+        <v>0.1280923035210848</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02611104901694005</v>
+        <v>0.02581672412221949</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
@@ -2076,19 +2076,19 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>5014489901.784515</v>
+        <v>3646111176.112301</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1093405666173047</v>
+        <v>0.1146956663968008</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04022302631848422</v>
+        <v>0.03980852236989486</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
@@ -2104,19 +2104,19 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3428858436.5949</v>
+        <v>3776098013.807517</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1691652595489548</v>
+        <v>0.1334390586465494</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02942093636045045</v>
+        <v>0.02259143136925732</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
@@ -2132,19 +2132,19 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2677852457.332556</v>
+        <v>3227940367.628245</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1275474145291375</v>
+        <v>0.1776044977257084</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02599069488078056</v>
+        <v>0.02774239015776495</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
@@ -2160,22 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1733491428.240436</v>
+        <v>1762151895.674091</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1925204503201401</v>
+        <v>0.1724460522599428</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04182727427262388</v>
+        <v>0.04315443239004531</v>
       </c>
       <c r="H62" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63">
@@ -2188,22 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4496333622.027444</v>
+        <v>3611657897.163786</v>
       </c>
       <c r="F63" t="n">
-        <v>0.1004803665225052</v>
+        <v>0.1037667985466303</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03101847600920053</v>
+        <v>0.03327513757955727</v>
       </c>
       <c r="H63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2216,22 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>5449539665.25615</v>
+        <v>3516622230.491402</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1553450744282898</v>
+        <v>0.1516920143879553</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03005828904526648</v>
+        <v>0.02913114901221787</v>
       </c>
       <c r="H64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2250,16 +2250,16 @@
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>3877113086.984002</v>
+        <v>5335414668.257123</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1741472407117468</v>
+        <v>0.1489273185037582</v>
       </c>
       <c r="G65" t="n">
-        <v>0.0289120511019408</v>
+        <v>0.02876567430128755</v>
       </c>
       <c r="H65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2272,22 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4298565100.517333</v>
+        <v>3697316601.134454</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1518488624077052</v>
+        <v>0.1204368942716771</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04126161192377981</v>
+        <v>0.05122731333390698</v>
       </c>
       <c r="H66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2306,13 +2306,13 @@
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2300458545.912314</v>
+        <v>2636671526.190767</v>
       </c>
       <c r="F67" t="n">
-        <v>0.08505695891219817</v>
+        <v>0.06819465549005499</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03697702225101297</v>
+        <v>0.04258306006298487</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
@@ -2328,19 +2328,19 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5560255270.672703</v>
+        <v>5067280776.802917</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1305426687598728</v>
+        <v>0.1598462208331669</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04655784609416071</v>
+        <v>0.03134739096424225</v>
       </c>
       <c r="H68" t="b">
         <v>1</v>
@@ -2362,13 +2362,13 @@
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1870417429.729303</v>
+        <v>1905724651.336389</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1552215368507905</v>
+        <v>0.1250802261132912</v>
       </c>
       <c r="G69" t="n">
-        <v>0.0573270036387236</v>
+        <v>0.04939021752236664</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
@@ -2384,19 +2384,19 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2880921187.095386</v>
+        <v>3345353695.595702</v>
       </c>
       <c r="F70" t="n">
-        <v>0.06392930255262951</v>
+        <v>0.1000212479859343</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03726904328699123</v>
+        <v>0.02998631568626215</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
@@ -2412,22 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4470928055.022389</v>
+        <v>5394317204.874643</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1653190043634708</v>
+        <v>0.1624338517263448</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02989586356386775</v>
+        <v>0.02985951243895695</v>
       </c>
       <c r="H71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2440,22 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1775906745.928211</v>
+        <v>1397285727.557517</v>
       </c>
       <c r="F72" t="n">
-        <v>0.1010594497792011</v>
+        <v>0.09583055470942445</v>
       </c>
       <c r="G72" t="n">
-        <v>0.05156768367643765</v>
+        <v>0.03213713483307457</v>
       </c>
       <c r="H72" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73">
@@ -2474,13 +2474,13 @@
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3512043328.481436</v>
+        <v>2744325271.791509</v>
       </c>
       <c r="F73" t="n">
-        <v>0.1059190602345194</v>
+        <v>0.09323970330198074</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03352468038336796</v>
+        <v>0.03209235676872517</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
@@ -2496,19 +2496,19 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2896153241.441555</v>
+        <v>2731313854.396765</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1191530500349608</v>
+        <v>0.1392022234635724</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02678730050685555</v>
+        <v>0.03058050159624271</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
@@ -2530,13 +2530,13 @@
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1853241152.879425</v>
+        <v>1808736285.443583</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1078973913434436</v>
+        <v>0.1539278534841716</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03486137866131526</v>
+        <v>0.03169551780588653</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
@@ -2558,16 +2558,16 @@
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4421489708.660511</v>
+        <v>4582961757.921347</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1130850812635254</v>
+        <v>0.09678169563463944</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02364574224715205</v>
+        <v>0.03284200931085664</v>
       </c>
       <c r="H76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -2586,13 +2586,13 @@
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1543181518.945664</v>
+        <v>2058900387.042955</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1165908740743174</v>
+        <v>0.1584723539000947</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02689133690154573</v>
+        <v>0.02334325716393522</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
@@ -2608,19 +2608,19 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4521334338.541471</v>
+        <v>4537374888.10889</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1258936305930605</v>
+        <v>0.1087569616745144</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04622369537798816</v>
+        <v>0.05449614359176772</v>
       </c>
       <c r="H78" t="b">
         <v>1</v>
@@ -2636,19 +2636,19 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1314768128.77167</v>
+        <v>1726422436.854078</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1676379343359695</v>
+        <v>0.1281379756454295</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02547299949049066</v>
+        <v>0.03526719650252005</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
@@ -2664,22 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>3793894104.563448</v>
+        <v>4076982127.894699</v>
       </c>
       <c r="F80" t="n">
-        <v>0.09267055203488614</v>
+        <v>0.1012672220221162</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02879050723297445</v>
+        <v>0.02782496151521287</v>
       </c>
       <c r="H80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -2692,22 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3326052534.501495</v>
+        <v>4130882282.195802</v>
       </c>
       <c r="F81" t="n">
-        <v>0.08766304439813088</v>
+        <v>0.1036117546397126</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02263838382837902</v>
+        <v>0.02117436581267814</v>
       </c>
       <c r="H81" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82">
@@ -2726,13 +2726,13 @@
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>3896444829.940987</v>
+        <v>5114504537.26104</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1614354759227787</v>
+        <v>0.1729992053504334</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02744973880688494</v>
+        <v>0.02442345803318384</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
@@ -2748,19 +2748,19 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1919897926.242886</v>
+        <v>1758821476.357892</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1159932608374362</v>
+        <v>0.1369968138434948</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03708281984195495</v>
+        <v>0.03129293486845335</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
@@ -2776,19 +2776,19 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2319597340.994882</v>
+        <v>2400021666.88939</v>
       </c>
       <c r="F84" t="n">
-        <v>0.09204468988478262</v>
+        <v>0.1169639322956149</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03619272294689127</v>
+        <v>0.03616495251803283</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
@@ -2804,19 +2804,19 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2444195701.81181</v>
+        <v>3655541061.035686</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1562932428926386</v>
+        <v>0.1850695169084212</v>
       </c>
       <c r="G85" t="n">
-        <v>0.05321879091004259</v>
+        <v>0.04933445618552281</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
@@ -2832,19 +2832,19 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>1924201463.066769</v>
+        <v>2008562537.502938</v>
       </c>
       <c r="F86" t="n">
-        <v>0.123455270601946</v>
+        <v>0.1113933780870315</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02510297237920922</v>
+        <v>0.01871124335225835</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
@@ -2860,19 +2860,19 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1434298411.049897</v>
+        <v>963594877.3015988</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1533433217094844</v>
+        <v>0.1604945755921674</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03361614789649696</v>
+        <v>0.0364958806863177</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
@@ -2888,19 +2888,19 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3364654134.67539</v>
+        <v>3176280760.104958</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1666367729816554</v>
+        <v>0.1487701863633104</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02945768011945611</v>
+        <v>0.03647806126251433</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
@@ -2922,13 +2922,13 @@
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3039695765.908071</v>
+        <v>2973658837.486063</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1463444144843812</v>
+        <v>0.1574047176823636</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03459204545676973</v>
+        <v>0.04108993050895087</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
@@ -2950,13 +2950,13 @@
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1482094103.165296</v>
+        <v>1832454842.368172</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1332782788528822</v>
+        <v>0.113203432220031</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04572484630768289</v>
+        <v>0.05429858094118261</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
@@ -2972,22 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1357367287.734519</v>
+        <v>1947030067.613172</v>
       </c>
       <c r="F91" t="n">
-        <v>0.127579659281713</v>
+        <v>0.1182149252139144</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05192173424071466</v>
+        <v>0.05863090202363059</v>
       </c>
       <c r="H91" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92">
@@ -3000,19 +3000,19 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2461621089.597576</v>
+        <v>2388106392.996163</v>
       </c>
       <c r="F92" t="n">
-        <v>0.07794371333407098</v>
+        <v>0.07001063003239448</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03641017257866188</v>
+        <v>0.04297584757329646</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
@@ -3028,22 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4248273511.759223</v>
+        <v>5040931544.811018</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1214634307552942</v>
+        <v>0.1037898995333245</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04683723311296573</v>
+        <v>0.05191069061651098</v>
       </c>
       <c r="H93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -3056,19 +3056,19 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1800070109.382375</v>
+        <v>2093216775.908539</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1389268448298221</v>
+        <v>0.1560963584257709</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03191964170415303</v>
+        <v>0.0399422895196952</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
@@ -3084,22 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2780997287.590225</v>
+        <v>2191635915.541102</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1292181625186911</v>
+        <v>0.08659939802740314</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03737617138047989</v>
+        <v>0.04498816709228332</v>
       </c>
       <c r="H95" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96">
@@ -3112,19 +3112,19 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1698626320.000551</v>
+        <v>2132072477.972746</v>
       </c>
       <c r="F96" t="n">
-        <v>0.133187656214243</v>
+        <v>0.09416477414116842</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03378447255974525</v>
+        <v>0.02931747524098133</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
@@ -3146,16 +3146,16 @@
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4318128705.150515</v>
+        <v>4604766194.814501</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1253790909626627</v>
+        <v>0.1425372096766963</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02003366476509955</v>
+        <v>0.02124496035375485</v>
       </c>
       <c r="H97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -3174,13 +3174,13 @@
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2812157490.096308</v>
+        <v>3509488382.734219</v>
       </c>
       <c r="F98" t="n">
-        <v>0.09502674481388744</v>
+        <v>0.07824487613932501</v>
       </c>
       <c r="G98" t="n">
-        <v>0.03149966407452689</v>
+        <v>0.02676728189882489</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
@@ -3196,19 +3196,19 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3230723045.859698</v>
+        <v>2184825673.995946</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1087047623413977</v>
+        <v>0.1235884161488048</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02175809962292096</v>
+        <v>0.02415453580863846</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
@@ -3230,13 +3230,13 @@
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4692452833.76469</v>
+        <v>4803048279.389592</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1459393088288817</v>
+        <v>0.1564568083454097</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02651165460699909</v>
+        <v>0.01753919576405539</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
@@ -3252,19 +3252,19 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3272333784.866859</v>
+        <v>3293763777.916527</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1705492409230494</v>
+        <v>0.2123520101631315</v>
       </c>
       <c r="G101" t="n">
-        <v>0.03966549183715701</v>
+        <v>0.03584937826810012</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>

--- a/output/fit_clients/fit_round_437.xlsx
+++ b/output/fit_clients/fit_round_437.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -480,23 +495,30 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2119338891.981915</v>
+        <v>1699727151.905491</v>
       </c>
       <c r="F2" t="n">
-        <v>0.09437792008189368</v>
+        <v>0.10648246757785</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04443754643531242</v>
+        <v>0.03917682729306552</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -514,17 +536,24 @@
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2211856185.218233</v>
+        <v>2106456311.094378</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1559210894990036</v>
+        <v>0.1232469147663524</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03069208914432668</v>
+        <v>0.04758876403928682</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -536,23 +565,30 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3758244340.439552</v>
+        <v>5238566949.782978</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1391424508276371</v>
+        <v>0.1252102143940941</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02573962223862939</v>
+        <v>0.03292338363399489</v>
       </c>
       <c r="H4" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>221</v>
+      </c>
+      <c r="J4" t="n">
+        <v>437</v>
+      </c>
+      <c r="K4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -570,16 +606,25 @@
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>2649425077.418345</v>
+        <v>2983702390.146595</v>
       </c>
       <c r="F5" t="n">
-        <v>0.09209034621082725</v>
+        <v>0.07224704201814849</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03117136972189521</v>
+        <v>0.03272877251541825</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>182</v>
+      </c>
+      <c r="J5" t="n">
+        <v>436</v>
+      </c>
+      <c r="K5" t="n">
+        <v>28.51618658937668</v>
       </c>
     </row>
     <row r="6">
@@ -592,23 +637,30 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>1948653736.553826</v>
+        <v>2239534660.636045</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1469930792574445</v>
+        <v>0.1128854134828274</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04494202413612353</v>
+        <v>0.03998163219544614</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -620,23 +672,30 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>3085063867.523158</v>
+        <v>3009451898.719378</v>
       </c>
       <c r="F7" t="n">
-        <v>0.09324565887628412</v>
+        <v>0.06228807511576465</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04804858512402972</v>
+        <v>0.04021422511272953</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -654,17 +713,24 @@
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2900266571.90739</v>
+        <v>2825531947.507517</v>
       </c>
       <c r="F8" t="n">
-        <v>0.168362714813696</v>
+        <v>0.1654577096144849</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02775184241135387</v>
+        <v>0.02801620258846001</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
       </c>
+      <c r="I8" t="n">
+        <v>118</v>
+      </c>
+      <c r="J8" t="n">
+        <v>433</v>
+      </c>
+      <c r="K8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -676,23 +742,30 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2132238395.43388</v>
+        <v>2030765442.776801</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1482643131381585</v>
+        <v>0.1548015426070626</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02601611259563262</v>
+        <v>0.03571788630153251</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -704,23 +777,30 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>3642719633.890872</v>
+        <v>5909158382.54458</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1769734660464726</v>
+        <v>0.213195354631521</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0545007043760621</v>
+        <v>0.05099890180287935</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
       </c>
+      <c r="I10" t="n">
+        <v>343</v>
+      </c>
+      <c r="J10" t="n">
+        <v>437</v>
+      </c>
+      <c r="K10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -738,17 +818,24 @@
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>4207780550.408833</v>
+        <v>3395142058.677797</v>
       </c>
       <c r="F11" t="n">
-        <v>0.177696391339521</v>
+        <v>0.1722202105892926</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04512801697173679</v>
+        <v>0.0452404837568724</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
       </c>
+      <c r="I11" t="n">
+        <v>180</v>
+      </c>
+      <c r="J11" t="n">
+        <v>435</v>
+      </c>
+      <c r="K11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -760,23 +847,30 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>3072887836.322489</v>
+        <v>2886412734.972901</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1581393068686815</v>
+        <v>0.1358456009913445</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04223228186131614</v>
+        <v>0.04965448934289857</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>3</v>
+      </c>
+      <c r="J12" t="n">
+        <v>308</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -794,16 +888,25 @@
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3883161070.619799</v>
+        <v>3215996625.189305</v>
       </c>
       <c r="F13" t="n">
-        <v>0.09554524702300492</v>
+        <v>0.06195436516015648</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02947770171027198</v>
+        <v>0.02257519717280704</v>
       </c>
       <c r="H13" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>228</v>
+      </c>
+      <c r="J13" t="n">
+        <v>436</v>
+      </c>
+      <c r="K13" t="n">
+        <v>28.71696767060135</v>
       </c>
     </row>
     <row r="14">
@@ -822,16 +925,25 @@
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2859685528.360313</v>
+        <v>2453935101.228769</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1319511965383485</v>
+        <v>0.15013320200268</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03266766449389376</v>
+        <v>0.03891607697236961</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>95</v>
+      </c>
+      <c r="J14" t="n">
+        <v>436</v>
+      </c>
+      <c r="K14" t="n">
+        <v>25.39143802178496</v>
       </c>
     </row>
     <row r="15">
@@ -844,23 +956,30 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1842423995.418872</v>
+        <v>1258462435.080557</v>
       </c>
       <c r="F15" t="n">
-        <v>0.1029863455099342</v>
+        <v>0.09007645140386886</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04832567246799187</v>
+        <v>0.04870415681605251</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -878,17 +997,24 @@
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2219821714.342218</v>
+        <v>1843541538.132066</v>
       </c>
       <c r="F16" t="n">
-        <v>0.08481329730220634</v>
+        <v>0.08862274720261067</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04949111460227602</v>
+        <v>0.04202400782917978</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -900,22 +1026,31 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3522323532.694274</v>
+        <v>3416323023.908624</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1567214382007772</v>
+        <v>0.1307668768506764</v>
       </c>
       <c r="G17" t="n">
-        <v>0.05289412890947313</v>
+        <v>0.04246091571874108</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>213</v>
+      </c>
+      <c r="J17" t="n">
+        <v>436</v>
+      </c>
+      <c r="K17" t="n">
+        <v>31.88697425165134</v>
       </c>
     </row>
     <row r="18">
@@ -928,23 +1063,30 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3011733046.601851</v>
+        <v>3928736471.991963</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1677337243071023</v>
+        <v>0.1807587818638399</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02526678306356851</v>
+        <v>0.03087750803854621</v>
       </c>
       <c r="H18" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I18" t="n">
+        <v>111</v>
+      </c>
+      <c r="J18" t="n">
+        <v>437</v>
+      </c>
+      <c r="K18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -962,17 +1104,24 @@
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>929912418.4968066</v>
+        <v>1051472726.884815</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1711978962040238</v>
+        <v>0.1611417885938546</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01775423829613619</v>
+        <v>0.01861898407038746</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -984,23 +1133,30 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2179656071.904371</v>
+        <v>2045191419.036576</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1184551424654751</v>
+        <v>0.132840260785358</v>
       </c>
       <c r="G20" t="n">
-        <v>0.03032639477073253</v>
+        <v>0.02808204824502443</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1012,23 +1168,30 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>1737385109.977102</v>
+        <v>1799623900.780525</v>
       </c>
       <c r="F21" t="n">
-        <v>0.09377558830748153</v>
+        <v>0.06256879942220414</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03595104159505479</v>
+        <v>0.04326646949000719</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1040,22 +1203,31 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3870919242.617543</v>
+        <v>3366066477.527639</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1262164440803778</v>
+        <v>0.1217298875006991</v>
       </c>
       <c r="G22" t="n">
-        <v>0.03774127227405765</v>
+        <v>0.03731603943980692</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>129</v>
+      </c>
+      <c r="J22" t="n">
+        <v>436</v>
+      </c>
+      <c r="K22" t="n">
+        <v>36.24489124425897</v>
       </c>
     </row>
     <row r="23">
@@ -1068,23 +1240,30 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1512709217.023982</v>
+        <v>1022256434.315147</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1120463350117969</v>
+        <v>0.1334824713185743</v>
       </c>
       <c r="G23" t="n">
-        <v>0.03773487744580413</v>
+        <v>0.04238641330402809</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1096,23 +1275,30 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3160617603.610356</v>
+        <v>4154028505.006578</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1023487340224253</v>
+        <v>0.1154850013410678</v>
       </c>
       <c r="G24" t="n">
-        <v>0.0303983267406966</v>
+        <v>0.02712650894965499</v>
       </c>
       <c r="H24" t="b">
         <v>1</v>
       </c>
+      <c r="I24" t="n">
+        <v>137</v>
+      </c>
+      <c r="J24" t="n">
+        <v>437</v>
+      </c>
+      <c r="K24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1124,23 +1310,30 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>987883836.3170958</v>
+        <v>1163061255.165067</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1031461017292667</v>
+        <v>0.1071047566352347</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02091727101694912</v>
+        <v>0.02634746568896451</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1158,17 +1351,24 @@
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1181749980.361779</v>
+        <v>1046037399.911953</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1152433037849879</v>
+        <v>0.1239166858294147</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02359362647935832</v>
+        <v>0.03472901518950829</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1186,16 +1386,25 @@
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3209060609.256071</v>
+        <v>4530664907.441688</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1206897682173141</v>
+        <v>0.1251749145448372</v>
       </c>
       <c r="G27" t="n">
-        <v>0.0248616065536353</v>
+        <v>0.02402949829134837</v>
       </c>
       <c r="H27" t="b">
         <v>1</v>
+      </c>
+      <c r="I27" t="n">
+        <v>188</v>
+      </c>
+      <c r="J27" t="n">
+        <v>437</v>
+      </c>
+      <c r="K27" t="n">
+        <v>43.0644864739259</v>
       </c>
     </row>
     <row r="28">
@@ -1208,22 +1417,31 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2625186197.71033</v>
+        <v>3866703605.013774</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1411997805931466</v>
+        <v>0.1030238746489147</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04768657286173824</v>
+        <v>0.04315625695804948</v>
       </c>
       <c r="H28" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I28" t="n">
+        <v>107</v>
+      </c>
+      <c r="J28" t="n">
+        <v>437</v>
+      </c>
+      <c r="K28" t="n">
+        <v>58.0029510643452</v>
       </c>
     </row>
     <row r="29">
@@ -1242,17 +1460,24 @@
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4254799194.093327</v>
+        <v>4729221577.001623</v>
       </c>
       <c r="F29" t="n">
-        <v>0.127211668646009</v>
+        <v>0.1517833275291085</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03551280143371158</v>
+        <v>0.03740345856268504</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
       </c>
+      <c r="I29" t="n">
+        <v>359</v>
+      </c>
+      <c r="J29" t="n">
+        <v>437</v>
+      </c>
+      <c r="K29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1264,23 +1489,30 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2198745778.22083</v>
+        <v>1705563161.097211</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1362388510651293</v>
+        <v>0.08621927486031349</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03205805639303485</v>
+        <v>0.03205077510088274</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1292,23 +1524,30 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1281870029.54581</v>
+        <v>1128627810.801562</v>
       </c>
       <c r="F31" t="n">
-        <v>0.11083027858616</v>
+        <v>0.1022274937491206</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03911325024550668</v>
+        <v>0.04779878544154543</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1320,23 +1559,30 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1600379852.653066</v>
+        <v>1773958182.84837</v>
       </c>
       <c r="F32" t="n">
-        <v>0.07452917544208981</v>
+        <v>0.07432485580528307</v>
       </c>
       <c r="G32" t="n">
-        <v>0.0297673282052217</v>
+        <v>0.03365522342902861</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1348,23 +1594,30 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2467382118.024855</v>
+        <v>2852243400.186044</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1519730026601878</v>
+        <v>0.1722956888485462</v>
       </c>
       <c r="G33" t="n">
-        <v>0.03976591131098454</v>
+        <v>0.04214607746081262</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1382,17 +1635,24 @@
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1346028160.483059</v>
+        <v>1379309257.102821</v>
       </c>
       <c r="F34" t="n">
-        <v>0.09113773742597205</v>
+        <v>0.1211270511814893</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02779110358770388</v>
+        <v>0.01985532087888974</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1404,23 +1664,30 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1149706862.157268</v>
+        <v>860830163.2858497</v>
       </c>
       <c r="F35" t="n">
-        <v>0.09654805063955721</v>
+        <v>0.07389004837580888</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03508032672953709</v>
+        <v>0.03252553283681955</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1432,23 +1699,30 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2801062702.372483</v>
+        <v>2305787899.680816</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1446391356113197</v>
+        <v>0.1723153381038732</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02336053748479252</v>
+        <v>0.02216931615448558</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>3</v>
+      </c>
+      <c r="J36" t="n">
+        <v>144</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1460,23 +1734,30 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2441068364.088037</v>
+        <v>1936637684.37617</v>
       </c>
       <c r="F37" t="n">
-        <v>0.08676312118024027</v>
+        <v>0.09206943281311065</v>
       </c>
       <c r="G37" t="n">
-        <v>0.0318654081892344</v>
+        <v>0.03042165235465957</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1488,23 +1769,30 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1398774919.306994</v>
+        <v>1818909030.91204</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1005377596407831</v>
+        <v>0.08188935848544311</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03570125624872959</v>
+        <v>0.03982575406936672</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1516,23 +1804,30 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>2050154826.158098</v>
+        <v>1615239611.779835</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1429285093549365</v>
+        <v>0.1794003095977445</v>
       </c>
       <c r="G39" t="n">
-        <v>0.03233315270084201</v>
+        <v>0.02192151552465178</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1544,23 +1839,30 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1643526936.125901</v>
+        <v>1096594659.929022</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1617706686727737</v>
+        <v>0.1065655108462254</v>
       </c>
       <c r="G40" t="n">
-        <v>0.06029839703854837</v>
+        <v>0.04666204841895401</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1572,23 +1874,30 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2588967409.643341</v>
+        <v>2059981597.608129</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1201049277957937</v>
+        <v>0.1079729457674307</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04327662193131623</v>
+        <v>0.03550562926828035</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1600,23 +1909,30 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3210617752.970828</v>
+        <v>3559699037.025108</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1096904764294929</v>
+        <v>0.1059191512952362</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04575198190186569</v>
+        <v>0.03132027405752943</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
       </c>
+      <c r="I42" t="n">
+        <v>189</v>
+      </c>
+      <c r="J42" t="n">
+        <v>435</v>
+      </c>
+      <c r="K42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1628,23 +1944,30 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2689970772.332302</v>
+        <v>2137006031.860178</v>
       </c>
       <c r="F43" t="n">
-        <v>0.2053553531314638</v>
+        <v>0.2015816609533774</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02035584193853603</v>
+        <v>0.02536227598196452</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1662,17 +1985,24 @@
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2302783735.009595</v>
+        <v>2055745048.228991</v>
       </c>
       <c r="F44" t="n">
-        <v>0.06497314662347975</v>
+        <v>0.06622986379918075</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03088910973140138</v>
+        <v>0.02721364698163729</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1684,23 +2014,30 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1964611018.847182</v>
+        <v>2399426921.963542</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1597155217840695</v>
+        <v>0.1483606191477038</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04414486692557866</v>
+        <v>0.03527980092407624</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1718,16 +2055,25 @@
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>3562661833.392619</v>
+        <v>3702330788.629278</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1242147731604435</v>
+        <v>0.1738084101111811</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04915404061107207</v>
+        <v>0.0438337368032929</v>
       </c>
       <c r="H46" t="b">
         <v>1</v>
+      </c>
+      <c r="I46" t="n">
+        <v>260</v>
+      </c>
+      <c r="J46" t="n">
+        <v>437</v>
+      </c>
+      <c r="K46" t="n">
+        <v>39.79589275155275</v>
       </c>
     </row>
     <row r="47">
@@ -1746,17 +2092,24 @@
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3502863001.499961</v>
+        <v>3435024515.909523</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1757000135115299</v>
+        <v>0.1335372975656535</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04578733514552509</v>
+        <v>0.04850582099004578</v>
       </c>
       <c r="H47" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
+        <v>196</v>
+      </c>
+      <c r="J47" t="n">
+        <v>435</v>
+      </c>
+      <c r="K47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1768,23 +2121,30 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4289897454.278226</v>
+        <v>3369574680.880637</v>
       </c>
       <c r="F48" t="n">
-        <v>0.08172389365126762</v>
+        <v>0.08268417646562698</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02977655447394053</v>
+        <v>0.030754585870616</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
       </c>
+      <c r="I48" t="n">
+        <v>222</v>
+      </c>
+      <c r="J48" t="n">
+        <v>435</v>
+      </c>
+      <c r="K48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1796,23 +2156,30 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1837233002.912698</v>
+        <v>1743796951.144165</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1373380949853787</v>
+        <v>0.1423413124443821</v>
       </c>
       <c r="G49" t="n">
-        <v>0.04366920501056428</v>
+        <v>0.0394168186277873</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1824,23 +2191,30 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>4202436161.782939</v>
+        <v>3701844063.105244</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1551798888662122</v>
+        <v>0.1073620266637268</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04157775839778329</v>
+        <v>0.05085041682433943</v>
       </c>
       <c r="H50" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I50" t="n">
+        <v>153</v>
+      </c>
+      <c r="J50" t="n">
+        <v>437</v>
+      </c>
+      <c r="K50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -1852,23 +2226,30 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1220845310.504838</v>
+        <v>1030397309.580909</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1764535236979419</v>
+        <v>0.1400941381432496</v>
       </c>
       <c r="G51" t="n">
-        <v>0.05038227253035093</v>
+        <v>0.05347721061203412</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1880,22 +2261,31 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3963034251.568988</v>
+        <v>3673464440.315325</v>
       </c>
       <c r="F52" t="n">
-        <v>0.08718558821493842</v>
+        <v>0.1224424495339282</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04537032143369436</v>
+        <v>0.05971099785190147</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
+      </c>
+      <c r="I52" t="n">
+        <v>250</v>
+      </c>
+      <c r="J52" t="n">
+        <v>436</v>
+      </c>
+      <c r="K52" t="n">
+        <v>36.18082579677019</v>
       </c>
     </row>
     <row r="53">
@@ -1914,17 +2304,24 @@
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2405856662.66258</v>
+        <v>3742231520.716013</v>
       </c>
       <c r="F53" t="n">
-        <v>0.2045145705958601</v>
+        <v>0.1379647979655467</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02715070737312549</v>
+        <v>0.02350713739243479</v>
       </c>
       <c r="H53" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I53" t="n">
+        <v>64</v>
+      </c>
+      <c r="J53" t="n">
+        <v>437</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1936,23 +2333,30 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4381859361.073359</v>
+        <v>3260867644.62062</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1341138512086211</v>
+        <v>0.1119864685639635</v>
       </c>
       <c r="G54" t="n">
-        <v>0.05097328571193191</v>
+        <v>0.04144349977038728</v>
       </c>
       <c r="H54" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
+        <v>232</v>
+      </c>
+      <c r="J54" t="n">
+        <v>435</v>
+      </c>
+      <c r="K54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -1970,17 +2374,24 @@
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3910413835.792405</v>
+        <v>4847844685.526217</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1831305364912588</v>
+        <v>0.1753301352912295</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02975174311056429</v>
+        <v>0.03037637037150909</v>
       </c>
       <c r="H55" t="b">
         <v>1</v>
       </c>
+      <c r="I55" t="n">
+        <v>216</v>
+      </c>
+      <c r="J55" t="n">
+        <v>437</v>
+      </c>
+      <c r="K55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -1992,23 +2403,30 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1533932202.813261</v>
+        <v>1141377468.902668</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1024071244895686</v>
+        <v>0.1204233460343727</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05322764777892874</v>
+        <v>0.0549364593885437</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2020,23 +2438,30 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3687750596.354239</v>
+        <v>3009707248.662026</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1475557360310218</v>
+        <v>0.1413043301948627</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02652049875124513</v>
+        <v>0.02309699819837921</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
       </c>
+      <c r="I57" t="n">
+        <v>189</v>
+      </c>
+      <c r="J57" t="n">
+        <v>432</v>
+      </c>
+      <c r="K57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2048,23 +2473,30 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1755273644.401745</v>
+        <v>1420388661.382726</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1280923035210848</v>
+        <v>0.1463752264590162</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02581672412221949</v>
+        <v>0.02442400940627784</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2076,22 +2508,31 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3646111176.112301</v>
+        <v>4459275771.802411</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1146956663968008</v>
+        <v>0.1165304602803768</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03980852236989486</v>
+        <v>0.03986607259066853</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
+      </c>
+      <c r="I59" t="n">
+        <v>214</v>
+      </c>
+      <c r="J59" t="n">
+        <v>436</v>
+      </c>
+      <c r="K59" t="n">
+        <v>37.32432860364528</v>
       </c>
     </row>
     <row r="60">
@@ -2110,17 +2551,24 @@
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3776098013.807517</v>
+        <v>3680442260.19313</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1334390586465494</v>
+        <v>0.1663646620101851</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02259143136925732</v>
+        <v>0.03225001807114451</v>
       </c>
       <c r="H60" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I60" t="n">
+        <v>85</v>
+      </c>
+      <c r="J60" t="n">
+        <v>437</v>
+      </c>
+      <c r="K60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2138,17 +2586,24 @@
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>3227940367.628245</v>
+        <v>3250580572.314754</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1776044977257084</v>
+        <v>0.1757836395937834</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02774239015776495</v>
+        <v>0.02046768422751421</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
+      <c r="I61" t="n">
+        <v>14</v>
+      </c>
+      <c r="J61" t="n">
+        <v>412</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2160,23 +2615,30 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1762151895.674091</v>
+        <v>2066529278.100758</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1724460522599428</v>
+        <v>0.1815068312236481</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04315443239004531</v>
+        <v>0.04722769442958479</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2188,22 +2650,31 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>3611657897.163786</v>
+        <v>4560522972.694569</v>
       </c>
       <c r="F63" t="n">
-        <v>0.1037667985466303</v>
+        <v>0.1012646107541195</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03327513757955727</v>
+        <v>0.04227067409589078</v>
       </c>
       <c r="H63" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
+        <v>218</v>
+      </c>
+      <c r="J63" t="n">
+        <v>436</v>
+      </c>
+      <c r="K63" t="n">
+        <v>38.70944714814329</v>
       </c>
     </row>
     <row r="64">
@@ -2216,22 +2687,31 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3516622230.491402</v>
+        <v>4451868171.286907</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1516920143879553</v>
+        <v>0.1447938652502996</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02913114901221787</v>
+        <v>0.03322475718946771</v>
       </c>
       <c r="H64" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
+        <v>219</v>
+      </c>
+      <c r="J64" t="n">
+        <v>436</v>
+      </c>
+      <c r="K64" t="n">
+        <v>37.78229053936981</v>
       </c>
     </row>
     <row r="65">
@@ -2244,22 +2724,31 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5335414668.257123</v>
+        <v>4742328546.968582</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1489273185037582</v>
+        <v>0.1115900443362294</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02876567430128755</v>
+        <v>0.02218103642842953</v>
       </c>
       <c r="H65" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I65" t="n">
+        <v>316</v>
+      </c>
+      <c r="J65" t="n">
+        <v>436</v>
+      </c>
+      <c r="K65" t="n">
+        <v>37.03287970481633</v>
       </c>
     </row>
     <row r="66">
@@ -2278,17 +2767,24 @@
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>3697316601.134454</v>
+        <v>3898001247.872856</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1204368942716771</v>
+        <v>0.1126259532594853</v>
       </c>
       <c r="G66" t="n">
-        <v>0.05122731333390698</v>
+        <v>0.03789468466414395</v>
       </c>
       <c r="H66" t="b">
         <v>1</v>
       </c>
+      <c r="I66" t="n">
+        <v>215</v>
+      </c>
+      <c r="J66" t="n">
+        <v>437</v>
+      </c>
+      <c r="K66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2300,23 +2796,30 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2636671526.190767</v>
+        <v>2692875773.86964</v>
       </c>
       <c r="F67" t="n">
-        <v>0.06819465549005499</v>
+        <v>0.06576977959791937</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04258306006298487</v>
+        <v>0.04695830850534256</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
       </c>
+      <c r="I67" t="n">
+        <v>11</v>
+      </c>
+      <c r="J67" t="n">
+        <v>389</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2334,17 +2837,24 @@
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5067280776.802917</v>
+        <v>5476550876.922191</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1598462208331669</v>
+        <v>0.1274408304968085</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03134739096424225</v>
+        <v>0.04698228410378363</v>
       </c>
       <c r="H68" t="b">
         <v>1</v>
       </c>
+      <c r="I68" t="n">
+        <v>238</v>
+      </c>
+      <c r="J68" t="n">
+        <v>437</v>
+      </c>
+      <c r="K68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2356,23 +2866,30 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1905724651.336389</v>
+        <v>2253130004.574502</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1250802261132912</v>
+        <v>0.1240705834726624</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04939021752236664</v>
+        <v>0.0563924504661805</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2384,23 +2901,30 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3345353695.595702</v>
+        <v>3034477289.640095</v>
       </c>
       <c r="F70" t="n">
-        <v>0.1000212479859343</v>
+        <v>0.1010424138373075</v>
       </c>
       <c r="G70" t="n">
-        <v>0.02998631568626215</v>
+        <v>0.04474605663910175</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
       </c>
+      <c r="I70" t="n">
+        <v>63</v>
+      </c>
+      <c r="J70" t="n">
+        <v>435</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2412,23 +2936,30 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>5394317204.874643</v>
+        <v>3969051861.049049</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1624338517263448</v>
+        <v>0.1433751636955491</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02985951243895695</v>
+        <v>0.03190253784116103</v>
       </c>
       <c r="H71" t="b">
         <v>1</v>
       </c>
+      <c r="I71" t="n">
+        <v>301</v>
+      </c>
+      <c r="J71" t="n">
+        <v>437</v>
+      </c>
+      <c r="K71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2440,23 +2971,30 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1397285727.557517</v>
+        <v>1913209934.022588</v>
       </c>
       <c r="F72" t="n">
-        <v>0.09583055470942445</v>
+        <v>0.1003463073770094</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03213713483307457</v>
+        <v>0.04255129848870066</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2468,22 +3006,31 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2744325271.791509</v>
+        <v>3056956679.58417</v>
       </c>
       <c r="F73" t="n">
-        <v>0.09323970330198074</v>
+        <v>0.07574294567602756</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03209235676872517</v>
+        <v>0.04856053088531742</v>
       </c>
       <c r="H73" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I73" t="n">
+        <v>32</v>
+      </c>
+      <c r="J73" t="n">
+        <v>437</v>
+      </c>
+      <c r="K73" t="n">
+        <v>58.19095361949142</v>
       </c>
     </row>
     <row r="74">
@@ -2496,23 +3043,30 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2731313854.396765</v>
+        <v>2619564003.450903</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1392022234635724</v>
+        <v>0.1687829441722225</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03058050159624271</v>
+        <v>0.03033626388794733</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
       </c>
+      <c r="I74" t="n">
+        <v>127</v>
+      </c>
+      <c r="J74" t="n">
+        <v>432</v>
+      </c>
+      <c r="K74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2524,23 +3078,30 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1808736285.443583</v>
+        <v>1996259837.788473</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1539278534841716</v>
+        <v>0.1179176323353252</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03169551780588653</v>
+        <v>0.02928743517121398</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2558,17 +3119,24 @@
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4582961757.921347</v>
+        <v>5220921775.964127</v>
       </c>
       <c r="F76" t="n">
-        <v>0.09678169563463944</v>
+        <v>0.1094429084997292</v>
       </c>
       <c r="G76" t="n">
-        <v>0.03284200931085664</v>
+        <v>0.03252172756443047</v>
       </c>
       <c r="H76" t="b">
         <v>1</v>
       </c>
+      <c r="I76" t="n">
+        <v>208</v>
+      </c>
+      <c r="J76" t="n">
+        <v>437</v>
+      </c>
+      <c r="K76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2580,23 +3148,30 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2058900387.042955</v>
+        <v>2123954240.739472</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1584723539000947</v>
+        <v>0.1304283293640904</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02334325716393522</v>
+        <v>0.0316801664648524</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2608,23 +3183,30 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4537374888.10889</v>
+        <v>4590039672.682926</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1087569616745144</v>
+        <v>0.1186564704742253</v>
       </c>
       <c r="G78" t="n">
-        <v>0.05449614359176772</v>
+        <v>0.03540521710076045</v>
       </c>
       <c r="H78" t="b">
         <v>1</v>
       </c>
+      <c r="I78" t="n">
+        <v>218</v>
+      </c>
+      <c r="J78" t="n">
+        <v>437</v>
+      </c>
+      <c r="K78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2636,23 +3218,30 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1726422436.854078</v>
+        <v>1759588522.753145</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1281379756454295</v>
+        <v>0.1236089611733593</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03526719650252005</v>
+        <v>0.03228653260762258</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2664,22 +3253,31 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4076982127.894699</v>
+        <v>4533025650.567225</v>
       </c>
       <c r="F80" t="n">
-        <v>0.1012672220221162</v>
+        <v>0.1097898542868691</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02782496151521287</v>
+        <v>0.03602658673613621</v>
       </c>
       <c r="H80" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
+        <v>213</v>
+      </c>
+      <c r="J80" t="n">
+        <v>436</v>
+      </c>
+      <c r="K80" t="n">
+        <v>32.8950162307524</v>
       </c>
     </row>
     <row r="81">
@@ -2692,22 +3290,31 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4130882282.195802</v>
+        <v>4179642607.989303</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1036117546397126</v>
+        <v>0.09674195790671231</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02117436581267814</v>
+        <v>0.03229699627980733</v>
       </c>
       <c r="H81" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I81" t="n">
+        <v>202</v>
+      </c>
+      <c r="J81" t="n">
+        <v>437</v>
+      </c>
+      <c r="K81" t="n">
+        <v>39.95472456164164</v>
       </c>
     </row>
     <row r="82">
@@ -2720,22 +3327,31 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>5114504537.26104</v>
+        <v>3471273263.041203</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1729992053504334</v>
+        <v>0.1908956400627522</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02442345803318384</v>
+        <v>0.01817247909697349</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
+      </c>
+      <c r="I82" t="n">
+        <v>294</v>
+      </c>
+      <c r="J82" t="n">
+        <v>436</v>
+      </c>
+      <c r="K82" t="n">
+        <v>35.27254326080893</v>
       </c>
     </row>
     <row r="83">
@@ -2748,23 +3364,30 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1758821476.357892</v>
+        <v>2156511194.021064</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1369968138434948</v>
+        <v>0.1113039231424972</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03129293486845335</v>
+        <v>0.03190511703343069</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2776,23 +3399,30 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2400021666.88939</v>
+        <v>1690981258.222775</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1169639322956149</v>
+        <v>0.08752171799654335</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03616495251803283</v>
+        <v>0.0370754685930209</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2810,17 +3440,24 @@
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3655541061.035686</v>
+        <v>2485251037.701426</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1850695169084212</v>
+        <v>0.1599243819255896</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04933445618552281</v>
+        <v>0.04081481478716326</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
       </c>
+      <c r="I85" t="n">
+        <v>57</v>
+      </c>
+      <c r="J85" t="n">
+        <v>430</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -2832,23 +3469,30 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2008562537.502938</v>
+        <v>2505836831.259506</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1113933780870315</v>
+        <v>0.1097006559506395</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01871124335225835</v>
+        <v>0.02166616110896821</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2860,23 +3504,30 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>963594877.3015988</v>
+        <v>1102069179.97342</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1604945755921674</v>
+        <v>0.1163979968552209</v>
       </c>
       <c r="G87" t="n">
-        <v>0.0364958806863177</v>
+        <v>0.03096457988547581</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2888,23 +3539,30 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3176280760.104958</v>
+        <v>2432134539.363925</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1487701863633104</v>
+        <v>0.1763627836959905</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03647806126251433</v>
+        <v>0.03686316435899723</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
       </c>
+      <c r="I88" t="n">
+        <v>58</v>
+      </c>
+      <c r="J88" t="n">
+        <v>430</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -2916,23 +3574,30 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2973658837.486063</v>
+        <v>2435689997.079262</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1574047176823636</v>
+        <v>0.1533274952331364</v>
       </c>
       <c r="G89" t="n">
-        <v>0.04108993050895087</v>
+        <v>0.0334125232256828</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
       </c>
+      <c r="I89" t="n">
+        <v>26</v>
+      </c>
+      <c r="J89" t="n">
+        <v>333</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2944,23 +3609,30 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1832454842.368172</v>
+        <v>1956424713.554857</v>
       </c>
       <c r="F90" t="n">
-        <v>0.113203432220031</v>
+        <v>0.1384391395002933</v>
       </c>
       <c r="G90" t="n">
-        <v>0.05429858094118261</v>
+        <v>0.03878895302577225</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2978,17 +3650,24 @@
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1947030067.613172</v>
+        <v>1727267256.605804</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1182149252139144</v>
+        <v>0.1918106029566436</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05863090202363059</v>
+        <v>0.05162337685482501</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3000,23 +3679,30 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2388106392.996163</v>
+        <v>2761795527.796597</v>
       </c>
       <c r="F92" t="n">
-        <v>0.07001063003239448</v>
+        <v>0.1069937157403833</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04297584757329646</v>
+        <v>0.0396914623876659</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3034,16 +3720,25 @@
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>5040931544.811018</v>
+        <v>4529893861.233083</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1037898995333245</v>
+        <v>0.09782869511519741</v>
       </c>
       <c r="G93" t="n">
-        <v>0.05191069061651098</v>
+        <v>0.05494407633355548</v>
       </c>
       <c r="H93" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
+        <v>210</v>
+      </c>
+      <c r="J93" t="n">
+        <v>436</v>
+      </c>
+      <c r="K93" t="n">
+        <v>36.15247339352807</v>
       </c>
     </row>
     <row r="94">
@@ -3056,23 +3751,30 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2093216775.908539</v>
+        <v>2281753299.916906</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1560963584257709</v>
+        <v>0.1586025921486314</v>
       </c>
       <c r="G94" t="n">
-        <v>0.0399422895196952</v>
+        <v>0.04113972418857788</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3084,23 +3786,30 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2191635915.541102</v>
+        <v>3043346355.598774</v>
       </c>
       <c r="F95" t="n">
-        <v>0.08659939802740314</v>
+        <v>0.09891298936074393</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04498816709228332</v>
+        <v>0.0497828455797818</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>2</v>
+      </c>
+      <c r="J95" t="n">
+        <v>127</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3112,23 +3821,30 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2132072477.972746</v>
+        <v>2125773093.246364</v>
       </c>
       <c r="F96" t="n">
-        <v>0.09416477414116842</v>
+        <v>0.1303588507920218</v>
       </c>
       <c r="G96" t="n">
-        <v>0.02931747524098133</v>
+        <v>0.03094947583463088</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3140,23 +3856,30 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4604766194.814501</v>
+        <v>4024406163.99125</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1425372096766963</v>
+        <v>0.1588888459239825</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02124496035375485</v>
+        <v>0.0201153201376807</v>
       </c>
       <c r="H97" t="b">
         <v>1</v>
       </c>
+      <c r="I97" t="n">
+        <v>228</v>
+      </c>
+      <c r="J97" t="n">
+        <v>437</v>
+      </c>
+      <c r="K97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3168,22 +3891,31 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3509488382.734219</v>
+        <v>2939910015.322391</v>
       </c>
       <c r="F98" t="n">
-        <v>0.07824487613932501</v>
+        <v>0.1017753492001102</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02676728189882489</v>
+        <v>0.03147950021181786</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
+      </c>
+      <c r="I98" t="n">
+        <v>112</v>
+      </c>
+      <c r="J98" t="n">
+        <v>436</v>
+      </c>
+      <c r="K98" t="n">
+        <v>32.62459472586718</v>
       </c>
     </row>
     <row r="99">
@@ -3196,23 +3928,30 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2184825673.995946</v>
+        <v>3357192340.117077</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1235884161488048</v>
+        <v>0.1475979610899546</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02415453580863846</v>
+        <v>0.02462697738852083</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
+      <c r="I99" t="n">
+        <v>9</v>
+      </c>
+      <c r="J99" t="n">
+        <v>386</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3230,16 +3969,25 @@
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4803048279.389592</v>
+        <v>4064873521.008314</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1564568083454097</v>
+        <v>0.1190890826166504</v>
       </c>
       <c r="G100" t="n">
-        <v>0.01753919576405539</v>
+        <v>0.02069276554522668</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
+      </c>
+      <c r="I100" t="n">
+        <v>203</v>
+      </c>
+      <c r="J100" t="n">
+        <v>436</v>
+      </c>
+      <c r="K100" t="n">
+        <v>38.31786274962145</v>
       </c>
     </row>
     <row r="101">
@@ -3252,23 +4000,30 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3293763777.916527</v>
+        <v>2553988803.437294</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2123520101631315</v>
+        <v>0.1919255346620395</v>
       </c>
       <c r="G101" t="n">
-        <v>0.03584937826810012</v>
+        <v>0.05276109944766027</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
       </c>
+      <c r="I101" t="n">
+        <v>39</v>
+      </c>
+      <c r="J101" t="n">
+        <v>434</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
